--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>14.3000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>49.00</t>
   </si>
   <si>
@@ -62,6 +77,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -74,7 +104,16 @@
     <t>15.8400</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:13</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
   </si>
   <si>
     <t>VELABACK CREAM 50 GM</t>
@@ -101,7 +140,31 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 9:22 AM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 2 September, 2025 9:50 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -825,7 +888,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -834,14 +897,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -851,49 +914,214 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>32</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>33</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>36</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>37</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>169.84</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>30</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
-        <v>31</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
-        <v>32</v>
-      </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>40</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>41</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>36</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>44</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>45</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>48</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>36</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>44</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>49</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>252.5</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>51</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>52</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>53</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -922,10 +1150,35 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -164,7 +164,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 9:50 AM</t>
+    <t>Tuesday, 2 September, 2025 9:52 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -102,6 +114,15 @@
   </si>
   <si>
     <t>15.8400</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
   </si>
   <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
@@ -888,7 +909,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -897,14 +918,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -914,14 +935,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -970,7 +991,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -980,14 +1001,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -996,14 +1017,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1013,11 +1034,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1029,31 +1050,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1062,66 +1083,132 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>50</v>
       </c>
-      <c t="s" r="Q15" s="12">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>43</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>51</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>52</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>43</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>51</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>56</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>252.5</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>51</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>52</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>53</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>344.5</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>58</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>59</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>60</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1175,10 +1262,20 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -47,54 +47,54 @@
     <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
   </si>
   <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>14.3000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>14.3000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -128,7 +128,7 @@
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>0:13</t>
+    <t>0:14</t>
   </si>
   <si>
     <t>752.00</t>
@@ -185,7 +185,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 9:52 AM</t>
+    <t>Tuesday, 2 September, 2025 9:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -185,7 +197,25 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 9:54 AM</t>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>فرشه شعر اطفال الجو</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 2 September, 2025 9:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1107,7 +1137,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1123,13 +1153,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1140,7 +1170,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1149,7 +1179,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1162,7 +1192,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1173,42 +1203,141 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>59</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>43</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>55</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>60</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>344.5</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>62</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>58</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>59</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
-        <v>60</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>55</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>63</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>55</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>66</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>585.5</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>68</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>69</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>70</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1272,10 +1401,25 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -137,6 +146,18 @@
     <t>37.6000</t>
   </si>
   <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
     <t>VELABACK CREAM 50 GM</t>
   </si>
   <si>
@@ -215,7 +236,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 9:58 AM</t>
+    <t>Tuesday, 2 September, 2025 10:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1054,7 +1075,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1064,11 +1085,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1080,14 +1101,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1097,14 +1118,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1113,14 +1134,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1130,14 +1151,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1146,14 +1167,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1163,14 +1184,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1179,31 +1200,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1212,31 +1233,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1245,20 +1266,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1269,7 +1290,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1278,66 +1299,132 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>585.5</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>68</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>69</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>65</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>62</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>70</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>72</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>62</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>73</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>666.25</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>75</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>76</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>77</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1416,10 +1503,20 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -146,6 +155,15 @@
     <t>37.6000</t>
   </si>
   <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -161,9 +179,6 @@
     <t>VELABACK CREAM 50 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>55.00</t>
   </si>
   <si>
@@ -236,7 +251,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 10:42 AM</t>
+    <t>Tuesday, 2 September, 2025 10:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1075,7 +1090,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1085,14 +1100,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1108,7 +1123,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1118,11 +1133,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1134,14 +1149,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1151,11 +1166,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1167,14 +1182,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1184,11 +1199,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1200,14 +1215,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1217,14 +1232,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1233,14 +1248,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1250,14 +1265,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1266,31 +1281,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1299,31 +1314,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1332,31 +1347,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1365,66 +1380,132 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>666.25</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>74</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>70</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>67</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>75</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>76</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>77</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>18</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>67</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>78</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>748.25</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>80</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>81</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>82</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1513,10 +1594,20 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
   </si>
   <si>
     <t>1:4</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>286.00</t>
   </si>
   <si>
@@ -62,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AVOSOYA 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -74,9 +98,6 @@
     <t>49.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -116,6 +137,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
@@ -134,6 +167,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -158,18 +200,12 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>46.0000</t>
   </si>
   <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>175.00</t>
   </si>
   <si>
@@ -218,24 +254,27 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 4</t>
-  </si>
-  <si>
     <t>190.00</t>
   </si>
   <si>
@@ -251,7 +290,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 10:48 AM</t>
+    <t>Tuesday, 2 September, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -958,7 +997,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -968,14 +1007,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -984,14 +1023,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1001,14 +1040,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1017,14 +1056,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1034,14 +1073,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1050,14 +1089,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1067,14 +1106,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1100,11 +1139,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1116,14 +1155,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1133,14 +1172,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1149,14 +1188,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1166,14 +1205,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1182,14 +1221,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1199,14 +1238,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1215,14 +1254,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1239,7 +1278,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1255,7 +1294,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1321,7 +1360,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1331,11 +1370,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1347,31 +1386,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1380,31 +1419,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1413,31 +1452,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1446,66 +1485,198 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>748.25</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>78</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>50</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>79</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>80</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>81</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c t="s" r="Q25" s="12">
         <v>82</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>83</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>50</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>79</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>84</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>86</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>87</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>79</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>88</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>90</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>26</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>79</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>91</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1113.75</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>93</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>94</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>95</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1604,10 +1775,30 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -290,7 +290,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 11:00 AM</t>
+    <t>Tuesday, 2 September, 2025 11:01 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -101,13 +101,13 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>0:4</t>
+    <t>0:0</t>
   </si>
   <si>
     <t>85.00</t>
   </si>
   <si>
-    <t>17.0000</t>
+    <t>85.0000</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -161,9 +161,6 @@
     <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -185,6 +182,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>POLYFRESH ADVANCED EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -245,19 +251,28 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -290,7 +305,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 11:01 AM</t>
+    <t>Tuesday, 2 September, 2025 11:27 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1080,7 +1095,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1228,7 +1243,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1242,7 +1257,7 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1254,7 +1269,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1271,11 +1286,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1287,7 +1302,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1304,11 +1319,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1320,14 +1335,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1337,14 +1352,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1353,14 +1368,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1370,14 +1385,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1393,7 +1408,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1403,14 +1418,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1419,14 +1434,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1436,14 +1451,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1452,14 +1467,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1469,11 +1484,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1485,14 +1500,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1502,14 +1517,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1518,31 +1533,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1551,28 +1566,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1584,31 +1599,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1617,66 +1632,132 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1113.75</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>92</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>82</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>93</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>94</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>95</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>26</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>82</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>96</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1336.75</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>98</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>99</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>100</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1795,10 +1876,20 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -305,7 +305,13 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 11:27 AM</t>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 2 September, 2025 11:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1726,38 +1732,71 @@
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1336.75</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>98</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>99</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>82</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>83</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1356.75</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
         <v>100</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>101</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>102</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1886,10 +1925,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -311,7 +311,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 11:28 AM</t>
+    <t>Tuesday, 2 September, 2025 11:29 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -296,6 +296,15 @@
     <t>190.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
@@ -311,7 +320,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 11:29 AM</t>
+    <t>Tuesday, 2 September, 2025 11:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1744,7 +1753,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1754,49 +1763,82 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1356.75</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>100</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>101</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>102</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>82</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>83</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1366.75</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>103</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>104</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>105</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1930,10 +1972,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -320,7 +320,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 11:46 AM</t>
+    <t>Tuesday, 2 September, 2025 11:51 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -137,6 +137,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -209,6 +218,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -242,9 +260,6 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -320,7 +335,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 11:51 AM</t>
+    <t>Tuesday, 2 September, 2025 11:52 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1192,7 +1207,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1202,11 +1217,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1218,14 +1233,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1258,7 +1273,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1268,14 +1283,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1284,14 +1299,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1301,14 +1316,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1324,7 +1339,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1357,7 +1372,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1374,7 +1389,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1390,7 +1405,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1400,14 +1415,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1416,14 +1431,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1433,14 +1448,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1449,14 +1464,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1466,14 +1481,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1489,7 +1504,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1499,14 +1514,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1522,7 +1537,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1532,14 +1547,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1548,14 +1563,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1565,14 +1580,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1581,28 +1596,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1614,31 +1629,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1647,28 +1662,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1680,31 +1695,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1713,28 +1728,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1746,28 +1761,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1779,66 +1794,132 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1366.75</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>103</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>26</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>87</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>104</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>105</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>106</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>107</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>87</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>88</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1471.25</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>108</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>109</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>110</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1977,10 +2058,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -335,7 +335,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 11:52 AM</t>
+    <t>Tuesday, 2 September, 2025 12:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -212,6 +224,15 @@
     <t>37.6000</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -335,7 +356,19 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 12:13 PM</t>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 2 September, 2025 12:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1158,7 +1191,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1167,14 +1200,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1184,14 +1217,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1207,7 +1240,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1217,11 +1250,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1233,14 +1266,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1273,7 +1306,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1283,11 +1316,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1299,14 +1332,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1316,14 +1349,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1332,14 +1365,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1349,14 +1382,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1365,14 +1398,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1382,11 +1415,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1398,14 +1431,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1415,14 +1448,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1431,14 +1464,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1455,7 +1488,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1471,7 +1504,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1481,14 +1514,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1497,14 +1530,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1514,14 +1547,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1530,14 +1563,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1547,14 +1580,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1563,14 +1596,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1580,14 +1613,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1596,14 +1629,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1620,7 +1653,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1636,7 +1669,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1653,7 +1686,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1675,15 +1708,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1695,31 +1728,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1728,28 +1761,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1761,20 +1794,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1782,10 +1815,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1801,13 +1834,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1834,21 +1867,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1860,66 +1893,165 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1471.25</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>108</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>109</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>110</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>26</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>94</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>111</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>113</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>114</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>94</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>95</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>115</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>116</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>94</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>117</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1622.25</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>119</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>120</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>121</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2068,10 +2200,25 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -170,6 +170,18 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>MENTO DROPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
@@ -284,18 +296,12 @@
     <t>100.00</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -368,7 +374,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 12:49 PM</t>
+    <t>Tuesday, 2 September, 2025 12:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1339,24 +1345,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1365,14 +1371,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1382,14 +1388,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1398,14 +1404,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1415,14 +1421,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1431,14 +1437,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1448,11 +1454,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1464,14 +1470,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1481,14 +1487,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1497,14 +1503,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1521,7 +1527,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1537,7 +1543,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1547,14 +1553,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1563,14 +1569,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1580,11 +1586,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1596,14 +1602,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1613,14 +1619,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1629,14 +1635,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1646,11 +1652,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1662,14 +1668,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1679,14 +1685,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1695,14 +1701,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1735,7 +1741,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1745,14 +1751,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1761,31 +1767,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1794,31 +1800,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1827,7 +1833,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1840,18 +1846,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1860,28 +1866,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1893,28 +1899,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1926,7 +1932,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1939,15 +1945,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1959,28 +1965,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2005,53 +2011,86 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>117</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
         <v>118</v>
       </c>
-      <c t="s" r="Q37" s="12">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1622.25</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>54</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>119</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c t="s" r="Q38" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1672.25</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
         <v>121</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>122</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>123</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2215,10 +2254,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -158,6 +158,18 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -224,6 +236,18 @@
     <t>125.0000</t>
   </si>
   <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>-55.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -299,15 +323,18 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
     <t>20.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">زيت شعر املا 180 مل </t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -359,9 +386,6 @@
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
@@ -374,7 +398,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 12:50 PM</t>
+    <t>Tuesday, 2 September, 2025 2:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1329,7 +1353,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1345,13 +1369,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1362,7 +1386,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1378,24 +1402,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1404,14 +1428,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1421,14 +1445,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1437,14 +1461,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1454,14 +1478,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1470,14 +1494,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1487,11 +1511,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1503,14 +1527,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1520,14 +1544,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1536,14 +1560,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1560,7 +1584,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1576,7 +1600,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1593,7 +1617,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1602,14 +1626,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1619,14 +1643,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1635,14 +1659,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1652,14 +1676,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1668,14 +1692,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1685,14 +1709,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1701,14 +1725,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1718,14 +1742,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1734,14 +1758,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1751,14 +1775,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1767,14 +1791,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1784,14 +1808,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1800,28 +1824,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1833,31 +1857,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1866,28 +1890,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1899,28 +1923,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1932,31 +1956,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1965,28 +1989,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1998,28 +2022,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2031,20 +2055,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2055,42 +2079,141 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1672.25</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>121</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>26</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>58</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>122</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>124</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>107</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>58</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>104</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>125</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>126</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>58</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>127</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1742.25</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>129</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>130</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>131</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2259,10 +2382,25 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -398,7 +398,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 2:09 PM</t>
+    <t>Tuesday, 2 September, 2025 3:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -98,6 +98,12 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CEFAXONE 500MG I.M. VIAL</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -158,6 +164,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -197,12 +212,21 @@
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>23.0000</t>
   </si>
   <si>
+    <t>NYSTATIN 100 000 I.U./ML 30ML SUSP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
   </si>
   <si>
@@ -227,6 +251,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>POLYFRESH ADVANCED EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -272,9 +305,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -323,12 +353,6 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">زيت شعر املا 180 مل </t>
   </si>
   <si>
@@ -341,7 +365,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -356,9 +380,6 @@
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>190.00</t>
   </si>
   <si>
@@ -392,13 +413,10 @@
     <t>32:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 3:50 PM</t>
+    <t>Tuesday, 2 September, 2025 4:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1171,7 +1189,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1181,14 +1199,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1197,14 +1215,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1214,11 +1232,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1230,14 +1248,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1247,14 +1265,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1263,14 +1281,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1280,14 +1298,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1296,14 +1314,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1313,11 +1331,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1329,14 +1347,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1346,14 +1364,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1362,14 +1380,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1379,14 +1397,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1395,28 +1413,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1428,14 +1446,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1445,11 +1463,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1461,24 +1479,24 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1501,7 +1519,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1511,11 +1529,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1527,14 +1545,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1551,7 +1569,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1567,7 +1585,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1577,11 +1595,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1593,14 +1611,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1610,14 +1628,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1626,14 +1644,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1643,11 +1661,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1659,14 +1677,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1676,11 +1694,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1692,14 +1710,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1709,11 +1727,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1725,14 +1743,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1742,14 +1760,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1758,14 +1776,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1798,7 +1816,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1831,7 +1849,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1841,11 +1859,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1857,14 +1875,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1874,11 +1892,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1890,31 +1908,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1923,28 +1941,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1956,20 +1974,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1977,10 +1995,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1996,13 +2014,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2010,10 +2028,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2022,28 +2040,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2055,28 +2073,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2088,31 +2106,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2121,28 +2139,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2154,66 +2172,198 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>125</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>26</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>63</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>126</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>128</v>
       </c>
-      <c t="s" r="Q41" s="12">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>26</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>63</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>129</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>131</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
         <v>115</v>
       </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1742.25</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>129</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>130</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
-        <v>131</v>
-      </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>63</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>81</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>132</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>133</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>63</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>70</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1995.25</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>135</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>136</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>137</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2397,10 +2547,30 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -302,6 +302,12 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>SHAAN REJUVENITION CREAM 120 GM</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -416,7 +422,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 4:05 PM</t>
+    <t>Tuesday, 2 September, 2025 5:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1849,7 +1855,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1859,11 +1865,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1875,14 +1881,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1892,14 +1898,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1908,14 +1914,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1925,11 +1931,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1941,14 +1947,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1958,14 +1964,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1974,14 +1980,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1991,11 +1997,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2007,14 +2013,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2024,14 +2030,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2047,24 +2053,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2073,14 +2079,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2090,11 +2096,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2113,7 +2119,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2123,14 +2129,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2139,7 +2145,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2156,14 +2162,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2172,14 +2178,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2189,11 +2195,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2205,14 +2211,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2222,11 +2228,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2238,7 +2244,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2255,11 +2261,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2271,14 +2277,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2288,11 +2294,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2304,14 +2310,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2321,49 +2327,82 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>134</v>
       </c>
-      <c t="s" r="Q45" s="12">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>135</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>63</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>70</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>69</v>
       </c>
     </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1995.25</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>135</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>136</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2145.25</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
         <v>137</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>138</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>139</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2567,10 +2606,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -422,7 +422,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 5:02 PM</t>
+    <t>Tuesday, 2 September, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>147.0000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -119,87 +128,90 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>MENTO DROPS</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>MENTO DROPS</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -218,9 +230,6 @@
     <t>NYSTATIN 100 000 I.U./ML 30ML SUSP.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -272,9 +281,6 @@
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
-    <t>110.00</t>
-  </si>
-  <si>
     <t>-55.0000</t>
   </si>
   <si>
@@ -311,6 +317,9 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
+    <t>4:1</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -335,9 +344,6 @@
     <t>55.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -350,6 +356,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -371,7 +386,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>20:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -422,7 +437,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 5:32 PM</t>
+    <t>Tuesday, 2 September, 2025 6:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1228,7 +1243,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1238,14 +1253,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1254,14 +1269,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1271,11 +1286,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1287,14 +1302,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1304,14 +1319,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1320,14 +1335,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1337,14 +1352,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1353,14 +1368,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1393,7 +1408,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1410,7 +1425,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1426,7 +1441,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1436,11 +1451,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1452,14 +1467,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1469,14 +1484,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1485,31 +1500,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1518,31 +1533,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1551,14 +1566,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1568,14 +1583,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1591,7 +1606,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1601,11 +1616,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1617,14 +1632,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1634,14 +1649,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1657,7 +1672,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1690,7 +1705,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1707,7 +1722,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1723,7 +1738,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1756,7 +1771,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1773,7 +1788,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1782,14 +1797,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1799,14 +1814,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1815,14 +1830,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1832,14 +1847,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1848,14 +1863,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1865,7 +1880,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1888,7 +1903,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1898,11 +1913,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1914,14 +1929,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1931,14 +1946,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1954,7 +1969,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1964,7 +1979,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -1987,7 +2002,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2004,7 +2019,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2020,7 +2035,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2030,11 +2045,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2046,14 +2061,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2063,14 +2078,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2086,24 +2101,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2112,31 +2127,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2145,31 +2160,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2185,21 +2200,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2211,31 +2226,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2244,28 +2259,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2277,28 +2292,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2310,28 +2325,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2343,66 +2358,132 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2145.25</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>137</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>138</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>122</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>67</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>84</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>139</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>140</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>67</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>73</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2237.9099999999999</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>142</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>143</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>144</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2611,10 +2692,20 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -149,9 +161,6 @@
     <t>23.7600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -356,6 +365,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VILDABETES 50/1000MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -437,7 +455,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 6:02 PM</t>
+    <t>Tuesday, 2 September, 2025 6:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1293,7 +1311,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1359,7 +1377,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1368,14 +1386,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1385,14 +1403,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1401,14 +1419,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1441,7 +1459,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1458,7 +1476,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1474,7 +1492,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1484,11 +1502,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1500,14 +1518,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1517,14 +1535,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1533,31 +1551,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1566,31 +1584,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1599,14 +1617,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1616,14 +1634,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1639,7 +1657,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1649,11 +1667,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1665,14 +1683,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1682,14 +1700,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1705,7 +1723,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1738,7 +1756,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1755,7 +1773,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1771,7 +1789,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1804,7 +1822,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1814,14 +1832,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1837,7 +1855,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1847,14 +1865,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1863,14 +1881,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1887,7 +1905,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1903,7 +1921,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1913,11 +1931,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1929,14 +1947,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1946,11 +1964,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1962,14 +1980,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1979,14 +1997,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2002,7 +2020,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2012,7 +2030,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2035,7 +2053,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2049,10 +2067,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2061,14 +2079,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2082,7 +2100,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2094,14 +2112,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2118,7 +2136,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2134,7 +2152,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2148,7 +2166,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2160,31 +2178,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2193,31 +2211,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2226,31 +2244,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2259,28 +2277,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2299,13 +2317,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2313,10 +2331,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2332,13 +2350,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2365,13 +2383,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2398,21 +2416,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2424,66 +2442,132 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2237.9099999999999</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>142</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>143</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>144</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>128</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>70</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>87</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>145</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>146</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>70</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>76</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2334.9299999999998</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>148</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>149</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>150</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2702,10 +2786,20 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -140,271 +140,277 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>85.00</t>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>MENTO DROPS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>NYSTATIN 100 000 I.U./ML 30ML SUSP.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>POLYFRESH ADVANCED EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>-55.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:14</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>SHAAN REJUVENITION CREAM 120 GM</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
+    <t>VELABACK CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VILDABETES 50/1000MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زيت شعر املا 180 مل </t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>85.0000</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>MENTO DROPS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>NYSTATIN 100 000 I.U./ML 30ML SUSP.</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>POLYFRESH ADVANCED EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
-  </si>
-  <si>
-    <t>-55.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:14</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>SHAAN REJUVENITION CREAM 120 GM</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>57.7500</t>
-  </si>
-  <si>
-    <t>VELABACK CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VILDABETES 50/1000MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زيت شعر املا 180 مل </t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -455,7 +461,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 6:04 PM</t>
+    <t>Tuesday, 2 September, 2025 6:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1360,7 +1366,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1370,14 +1376,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1459,7 +1465,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1469,11 +1475,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1485,7 +1491,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1502,11 +1508,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1518,14 +1524,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1535,11 +1541,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1551,14 +1557,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1634,7 +1640,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1657,7 +1663,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1997,11 +2003,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2251,7 +2257,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2294,11 +2300,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2310,7 +2316,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2327,14 +2333,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2343,7 +2349,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2360,11 +2366,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2376,14 +2382,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2393,11 +2399,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2409,7 +2415,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2426,11 +2432,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2442,7 +2448,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2459,11 +2465,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2475,7 +2481,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2508,14 +2514,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2529,21 +2535,21 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
       <c r="P51" s="13">
-        <v>2334.9299999999998</v>
+        <v>2353.9299999999998</v>
       </c>
       <c r="Q51" s="13"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
       <c t="s" r="A52" s="14">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -2551,13 +2557,13 @@
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c t="s" r="G52" s="15">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="16"/>
       <c t="s" r="K52" s="17">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L52" s="17"/>
       <c r="M52" s="17"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -269,6 +269,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -461,7 +470,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 6:12 PM</t>
+    <t>Tuesday, 2 September, 2025 6:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1795,7 +1804,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1812,7 +1821,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1828,7 +1837,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1861,7 +1870,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1871,14 +1880,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1894,7 +1903,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1904,14 +1913,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1920,14 +1929,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1944,7 +1953,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1970,11 +1979,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1986,14 +1995,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2003,11 +2012,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2019,14 +2028,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2036,14 +2045,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2059,7 +2068,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2069,7 +2078,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2092,7 +2101,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2106,10 +2115,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2118,14 +2127,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2139,7 +2148,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2151,14 +2160,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2175,7 +2184,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2191,7 +2200,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2208,7 +2217,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2224,7 +2233,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2238,10 +2247,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2250,31 +2259,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2300,11 +2309,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2323,7 +2332,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2333,14 +2342,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2349,7 +2358,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2366,14 +2375,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>136</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2389,7 +2398,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2422,7 +2431,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2488,7 +2497,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2498,11 +2507,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2514,14 +2523,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2531,49 +2540,82 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>150</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>151</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>70</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>76</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>55</v>
       </c>
     </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2353.9299999999998</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>150</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>151</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
-        <v>152</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2401.9299999999998</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>153</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>154</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>155</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2802,10 +2844,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -65,81 +65,99 @@
     <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
   </si>
   <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>-14.3000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>AVOSOYA 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CEFAXONE 500MG I.M. VIAL</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
     <t>1:4</t>
   </si>
   <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>14.3000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AVOSOYA 20 CAPSULES</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CEFAXONE 500MG I.M. VIAL</t>
-  </si>
-  <si>
-    <t>147.0000</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -155,9 +173,6 @@
     <t>6:3</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -173,6 +188,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -287,6 +314,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>POLYFRESH ADVANCED EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -302,19 +338,16 @@
     <t>-55.0000</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>0:14</t>
+    <t>0:16</t>
   </si>
   <si>
     <t>752.00</t>
   </si>
   <si>
-    <t>37.6000</t>
+    <t>-37.6000</t>
   </si>
   <si>
     <t>REPARIL-GEL N 40 GM</t>
@@ -326,12 +359,6 @@
     <t>58.0000</t>
   </si>
   <si>
-    <t>SHAAN REJUVENITION CREAM 120 GM</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -404,9 +431,6 @@
     <t xml:space="preserve">زيت شعر املا 180 مل </t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>85.0000</t>
   </si>
   <si>
@@ -416,10 +440,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>22:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -470,7 +494,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 6:13 PM</t>
+    <t>Tuesday, 2 September, 2025 6:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1194,7 +1218,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1203,14 +1227,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1220,11 +1244,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1236,14 +1260,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1253,14 +1277,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1269,7 +1293,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1286,14 +1310,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1302,14 +1326,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1319,14 +1343,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1335,14 +1359,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1352,11 +1376,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1368,14 +1392,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1385,14 +1409,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1401,14 +1425,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1418,14 +1442,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1434,14 +1458,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1451,14 +1475,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1467,14 +1491,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1484,14 +1508,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1500,14 +1524,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1517,11 +1541,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1533,14 +1557,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1550,14 +1574,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1566,14 +1590,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1583,14 +1607,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1599,28 +1623,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1632,14 +1656,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1649,14 +1673,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1665,28 +1689,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1698,14 +1722,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1715,14 +1739,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1731,14 +1755,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1748,14 +1772,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1764,14 +1788,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1781,14 +1805,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1797,14 +1821,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1814,14 +1838,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1830,14 +1854,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1847,14 +1871,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1863,14 +1887,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1880,14 +1904,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1896,14 +1920,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1913,14 +1937,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1929,14 +1953,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1946,14 +1970,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1962,14 +1986,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1979,11 +2003,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1995,14 +2019,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2012,14 +2036,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2028,14 +2052,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2045,14 +2069,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2061,14 +2085,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2078,14 +2102,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2094,14 +2118,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2111,14 +2135,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2127,14 +2151,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2144,14 +2168,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2160,14 +2184,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2177,14 +2201,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2193,14 +2217,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2210,14 +2234,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2226,14 +2250,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2243,14 +2267,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2259,14 +2283,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2276,14 +2300,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2292,31 +2316,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2325,31 +2349,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2358,31 +2382,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2391,28 +2415,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2424,31 +2448,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2457,28 +2481,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2490,28 +2514,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2523,28 +2547,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2556,66 +2580,132 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2401.9299999999998</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>153</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>154</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
-        <v>155</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>157</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>60</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>79</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>99</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>158</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>159</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>79</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>85</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2237.0100000000002</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>161</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>162</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>163</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2849,10 +2939,20 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -143,13 +143,13 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>9:2</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
@@ -173,9 +173,6 @@
     <t>6:3</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -440,10 +437,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>22:0</t>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -494,7 +488,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 6:36 PM</t>
+    <t>Tuesday, 2 September, 2025 6:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1416,7 +1410,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1479,7 +1473,7 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>36</v>
@@ -1491,14 +1485,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1508,11 +1502,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>25</v>
@@ -1524,14 +1518,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1541,11 +1535,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1557,14 +1551,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1574,11 +1568,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -1590,7 +1584,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1607,11 +1601,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1623,14 +1617,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1640,11 +1634,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1656,7 +1650,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1673,11 +1667,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -1689,28 +1683,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1722,7 +1716,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1739,11 +1733,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1755,14 +1749,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1772,11 +1766,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1788,14 +1782,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1809,7 +1803,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1821,7 +1815,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1838,11 +1832,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -1854,7 +1848,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1871,11 +1865,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -1887,14 +1881,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1904,14 +1898,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1920,7 +1914,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1937,11 +1931,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1953,14 +1947,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1970,11 +1964,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -1986,7 +1980,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2003,11 +1997,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2019,7 +2013,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2040,7 +2034,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2052,14 +2046,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2069,11 +2063,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2085,14 +2079,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2102,11 +2096,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2118,14 +2112,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2135,11 +2129,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2151,14 +2145,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2172,7 +2166,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2184,7 +2178,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2201,11 +2195,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2217,14 +2211,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2234,7 +2228,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2250,14 +2244,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2267,11 +2261,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2283,7 +2277,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2300,11 +2294,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2316,14 +2310,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,11 +2327,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>36</v>
@@ -2349,14 +2343,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2366,11 +2360,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2382,28 +2376,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2415,20 +2409,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2436,7 +2430,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2448,31 +2442,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2481,28 +2475,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2514,28 +2508,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2547,7 +2541,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2560,15 +2554,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2580,7 +2574,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2593,15 +2587,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2613,28 +2607,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2646,42 +2640,42 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
       <c r="P54" s="13">
-        <v>2237.0100000000002</v>
+        <v>2250.8899999999999</v>
       </c>
       <c r="Q54" s="13"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c t="s" r="A55" s="14">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -2689,13 +2683,13 @@
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c t="s" r="G55" s="15">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="16"/>
       <c t="s" r="K55" s="17">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -488,7 +488,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 6:44 PM</t>
+    <t>Tuesday, 2 September, 2025 6:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -140,39 +152,51 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>9:2</t>
+    <t>9:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
     <t>23.7600</t>
   </si>
   <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -188,9 +212,6 @@
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
@@ -212,12 +233,6 @@
     <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -347,6 +362,12 @@
     <t>-37.6000</t>
   </si>
   <si>
+    <t>QUADRIDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -437,7 +458,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>23:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -488,7 +509,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 6:47 PM</t>
+    <t>Tuesday, 2 September, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1261,7 +1282,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1271,14 +1292,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1287,14 +1308,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1304,14 +1325,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1320,14 +1341,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1377,7 +1398,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1410,7 +1431,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1426,7 +1447,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1436,14 +1457,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1452,14 +1473,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1469,14 +1490,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1509,7 +1530,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1518,14 +1539,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1535,14 +1556,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1591,7 +1612,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1641,7 +1662,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1657,7 +1678,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1667,14 +1688,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1683,28 +1704,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1716,14 +1737,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1733,11 +1754,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1749,20 +1770,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1789,7 +1810,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1799,14 +1820,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1822,7 +1843,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1839,7 +1860,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1855,7 +1876,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1865,14 +1886,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1881,14 +1902,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1898,14 +1919,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1914,14 +1935,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1931,14 +1952,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1947,14 +1968,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1964,14 +1985,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1980,14 +2001,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1997,11 +2018,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2013,14 +2034,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2030,14 +2051,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2053,7 +2074,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2063,14 +2084,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2079,14 +2100,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2096,14 +2117,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2129,14 +2150,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2152,7 +2173,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2162,14 +2183,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2195,14 +2216,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2211,14 +2232,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2228,11 +2249,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2244,14 +2265,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2261,14 +2282,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2277,14 +2298,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2294,11 +2315,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2310,14 +2331,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2327,14 +2348,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2343,14 +2364,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2360,14 +2381,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2376,31 +2397,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2409,31 +2430,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2442,31 +2463,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2475,28 +2496,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2508,28 +2529,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2541,31 +2562,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2574,28 +2595,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2607,28 +2628,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2647,59 +2668,158 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2250.8899999999999</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>159</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>31</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>83</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>160</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>161</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>162</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>27</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>83</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>103</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>163</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>164</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>83</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>89</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2421.77</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>166</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>167</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>168</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2943,10 +3063,25 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -125,9 +134,6 @@
     <t>110.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -404,9 +410,6 @@
     <t>VELABACK CREAM 50 GM</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -479,6 +482,15 @@
     <t>190.0000</t>
   </si>
   <si>
+    <t>شاش فازلين 10*10 سم</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
@@ -497,6 +509,9 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
@@ -509,7 +524,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 7:01 PM</t>
+    <t>Tuesday, 2 September, 2025 7:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1249,7 +1264,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1259,11 +1274,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1275,14 +1290,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1292,11 +1307,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1308,14 +1323,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1325,14 +1340,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1341,14 +1356,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1358,14 +1373,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1381,7 +1396,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1391,11 +1406,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1407,14 +1422,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1424,14 +1439,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1440,14 +1455,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1457,11 +1472,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1473,14 +1488,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1490,14 +1505,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1506,14 +1521,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1523,14 +1538,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1539,14 +1554,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1556,14 +1571,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1572,14 +1587,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1589,14 +1604,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1605,14 +1620,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1622,14 +1637,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1638,14 +1653,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1655,14 +1670,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1671,14 +1686,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1688,14 +1703,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1704,14 +1719,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1721,11 +1736,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1737,14 +1752,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1754,14 +1769,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1770,31 +1785,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1803,31 +1818,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1843,7 +1858,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1853,14 +1868,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1869,14 +1884,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1886,7 +1901,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -1909,7 +1924,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1919,14 +1934,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1935,14 +1950,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1952,11 +1967,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -1968,14 +1983,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1985,14 +2000,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2001,14 +2016,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2018,14 +2033,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2034,14 +2049,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2051,14 +2066,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2067,14 +2082,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2088,10 +2103,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2100,14 +2115,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2117,14 +2132,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2140,7 +2155,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2150,11 +2165,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2166,14 +2181,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2183,14 +2198,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2206,7 +2221,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2220,7 +2235,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,11 +2264,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2282,14 +2297,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2298,14 +2313,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2315,11 +2330,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2348,14 +2363,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2371,7 +2386,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2381,11 +2396,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2397,14 +2412,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,14 +2429,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2430,14 +2445,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2447,14 +2462,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2463,7 +2478,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2480,14 +2495,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2496,31 +2511,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2536,21 +2551,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2562,31 +2577,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2595,31 +2610,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2628,28 +2643,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2661,28 +2676,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2694,28 +2709,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2727,28 +2742,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2767,59 +2782,158 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2421.77</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>166</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>72</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>85</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>161</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>167</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>30</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>85</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>105</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>168</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>169</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>85</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>91</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2493.77</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>171</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>172</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>173</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3078,10 +3192,25 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -524,7 +524,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 7:03 PM</t>
+    <t>Tuesday, 2 September, 2025 7:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AVOSOYA 20 CAPSULES</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>175.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
   </si>
   <si>
@@ -167,42 +179,48 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>9:1</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -224,6 +242,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -470,7 +497,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سيتي بيبي رقم 4</t>
@@ -512,9 +539,27 @@
     <t>قطن 50جم</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>33:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
@@ -524,7 +569,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 7:04 PM</t>
+    <t>Tuesday, 2 September, 2025 7:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1231,7 +1276,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1241,14 +1286,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1257,7 +1302,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1274,14 +1319,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1290,14 +1335,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1363,7 +1408,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1373,14 +1418,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1389,14 +1434,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1406,14 +1451,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1422,14 +1467,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1439,14 +1484,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1479,7 +1524,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1495,7 +1540,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1505,11 +1550,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1521,14 +1566,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1542,10 +1587,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1561,7 +1606,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1571,14 +1616,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1587,14 +1632,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1604,14 +1649,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1627,7 +1672,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1637,14 +1682,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1653,14 +1698,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1670,14 +1715,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1686,14 +1731,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1703,14 +1748,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1719,14 +1764,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1736,11 +1781,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1752,14 +1797,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1792,7 +1837,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1802,14 +1847,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1818,28 +1863,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1851,14 +1896,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1868,14 +1913,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1884,14 +1929,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1901,14 +1946,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1917,28 +1962,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1950,14 +1995,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1967,14 +2012,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1983,14 +2028,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2000,14 +2045,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2016,14 +2061,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2033,14 +2078,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2056,7 +2101,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2073,7 +2118,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2089,7 +2134,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2099,14 +2144,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2122,7 +2167,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2139,7 +2184,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2155,7 +2200,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2165,14 +2210,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2181,14 +2226,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2198,14 +2243,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2221,7 +2266,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2235,7 +2280,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2247,14 +2292,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2264,14 +2309,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2297,14 +2342,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2313,14 +2358,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2330,14 +2375,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2346,14 +2391,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2363,14 +2408,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2379,14 +2424,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2396,11 +2441,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2412,14 +2457,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2429,14 +2474,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2445,14 +2490,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2462,14 +2507,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2478,14 +2523,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2495,14 +2540,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2511,14 +2556,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2532,10 +2577,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2544,31 +2589,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2577,31 +2622,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2610,31 +2655,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>150</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2643,28 +2688,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2676,24 +2721,24 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2716,13 +2761,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2730,10 +2775,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>159</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2749,13 +2794,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2766,7 +2811,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2782,13 +2827,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2815,21 +2860,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2841,28 +2886,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2874,66 +2919,231 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>175</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>81</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>94</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>170</v>
       </c>
-      <c t="s" r="Q59" s="12">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2493.77</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>171</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>172</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
-        <v>173</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>176</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>93</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>94</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>177</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>179</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>34</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>94</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>114</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>180</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>181</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>94</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>111</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>183</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>184</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>94</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>100</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2675.1750000000002</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>186</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>187</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>188</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3207,10 +3417,35 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
   </si>
   <si>
@@ -368,6 +377,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>POLYFRESH ADVANCED EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -569,7 +587,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 7:05 PM</t>
+    <t>Tuesday, 2 September, 2025 7:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1870,7 +1888,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1880,14 +1898,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1896,14 +1914,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1913,11 +1931,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1929,14 +1947,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1953,7 +1971,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1969,24 +1987,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1995,31 +2013,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2028,14 +2046,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2045,14 +2063,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2068,7 +2086,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2078,11 +2096,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2094,14 +2112,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2111,14 +2129,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2134,7 +2152,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2167,7 +2185,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2184,7 +2202,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2200,7 +2218,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2217,7 +2235,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2233,7 +2251,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,14 +2261,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2266,7 +2284,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2276,14 +2294,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2299,7 +2317,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2309,14 +2327,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2325,14 +2343,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2349,7 +2367,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2365,7 +2383,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2375,14 +2393,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2398,7 +2416,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2408,14 +2426,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2441,11 +2459,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2490,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,14 +2525,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2530,7 +2548,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,14 +2558,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2573,14 +2591,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2589,14 +2607,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,14 +2624,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,14 +2640,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2646,7 +2664,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2662,7 +2680,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2676,7 +2694,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -2688,31 +2706,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2721,31 +2739,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2754,31 +2772,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2787,31 +2805,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2827,13 +2845,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2841,10 +2859,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>165</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2860,13 +2878,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2877,7 +2895,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2893,13 +2911,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2926,13 +2944,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2959,21 +2977,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2985,28 +3003,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3018,28 +3036,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3051,28 +3069,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3084,66 +3102,132 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>186</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>187</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>97</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>114</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>189</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>190</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>97</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>103</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>81</v>
       </c>
     </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2675.1750000000002</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>186</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>187</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>188</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2785.7849999999999</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>192</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>193</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>194</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3442,10 +3526,20 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -587,7 +587,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 7:06 PM</t>
+    <t>Tuesday, 2 September, 2025 7:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -242,6 +242,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
   </si>
   <si>
@@ -296,6 +305,15 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) 355ML SUSP.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>MENTO DROPS</t>
   </si>
   <si>
@@ -434,6 +452,15 @@
     <t>4:1</t>
   </si>
   <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -461,12 +488,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -587,7 +608,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 7:08 PM</t>
+    <t>Tuesday, 2 September, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1822,7 +1843,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1855,7 +1876,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1865,14 +1886,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1881,14 +1902,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1921,7 +1942,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1931,14 +1952,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1947,14 +1968,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1964,11 +1985,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1980,14 +2001,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2004,7 +2025,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2020,24 +2041,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2046,14 +2067,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2063,14 +2084,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2079,28 +2100,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2129,14 +2150,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2145,14 +2166,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2162,14 +2183,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2195,14 +2216,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2218,7 +2239,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2235,7 +2256,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2251,7 +2272,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2268,7 +2289,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2284,7 +2305,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2294,14 +2315,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2317,7 +2338,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2350,7 +2371,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2360,14 +2381,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2383,7 +2404,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2393,14 +2414,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2433,7 +2454,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2449,7 +2470,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2459,14 +2480,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2482,7 +2503,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2492,14 +2513,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2508,14 +2529,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2525,11 +2546,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2541,14 +2562,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2558,14 +2579,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2574,14 +2595,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2591,14 +2612,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2614,7 +2635,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2624,14 +2645,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2640,14 +2661,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2657,14 +2678,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2690,11 +2711,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -2706,14 +2727,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2723,14 +2744,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2739,14 +2760,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2756,14 +2777,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,31 +2793,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2805,31 +2826,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2838,31 +2859,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2871,31 +2892,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2904,28 +2925,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2937,31 +2958,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2970,31 +2991,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3003,28 +3024,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3036,28 +3057,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3076,13 +3097,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3109,21 +3130,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3135,28 +3156,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3175,59 +3196,158 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2785.7849999999999</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>192</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>34</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>103</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>123</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>193</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
         <v>194</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>103</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>120</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>196</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>197</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>103</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>109</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>2923.2849999999999</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>199</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>200</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>201</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3536,10 +3656,25 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -608,7 +608,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 7:18 PM</t>
+    <t>Tuesday, 2 September, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -260,6 +260,24 @@
     <t>59.5000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -506,12 +524,33 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8342:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
     <t>100.00</t>
   </si>
   <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -524,10 +563,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>24:0</t>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>30:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -560,12 +599,6 @@
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
@@ -605,10 +638,7 @@
     <t>32:0</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 2 September, 2025 7:19 PM</t>
+    <t>Tuesday, 2 September, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1909,7 +1939,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1919,14 +1949,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1935,14 +1965,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1952,14 +1982,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1968,14 +1998,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1985,14 +2015,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2001,14 +2031,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2018,14 +2048,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2034,14 +2064,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2051,14 +2081,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2067,14 +2097,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2107,24 +2137,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2133,14 +2163,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2150,14 +2180,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2166,28 +2196,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2199,14 +2229,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2216,14 +2246,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2232,14 +2262,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2249,14 +2279,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2265,14 +2295,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2282,14 +2312,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2305,7 +2335,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2322,7 +2352,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>84</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2338,7 +2368,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2355,7 +2385,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2371,7 +2401,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2381,14 +2411,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2404,7 +2434,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2437,7 +2467,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2447,14 +2477,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2470,7 +2500,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2480,14 +2510,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2496,14 +2526,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2520,7 +2550,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2536,7 +2566,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2546,14 +2576,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2569,7 +2599,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2579,14 +2609,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2595,14 +2625,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2612,11 +2642,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2628,14 +2658,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2645,14 +2675,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2661,14 +2691,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2678,14 +2708,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2701,7 +2731,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2734,7 +2764,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2744,14 +2774,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2760,14 +2790,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2777,14 +2807,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2793,14 +2823,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2810,14 +2840,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2826,14 +2856,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2843,14 +2873,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2866,7 +2896,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2880,7 +2910,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>26</v>
@@ -2892,31 +2922,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2925,31 +2955,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2958,31 +2988,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>172</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2991,31 +3021,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3024,28 +3054,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3057,28 +3087,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3090,31 +3120,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3123,31 +3153,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3156,28 +3186,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3189,28 +3219,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3222,28 +3252,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3255,28 +3285,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3288,66 +3318,198 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>2923.2849999999999</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>199</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>200</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>108</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>109</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>201</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>203</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>34</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>109</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>129</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>204</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>205</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>109</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>126</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>207</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>208</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>109</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>115</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3101.2849999999999</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>209</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>210</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>211</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3671,10 +3833,30 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -542,6 +542,15 @@
     <t>100.00</t>
   </si>
   <si>
+    <t xml:space="preserve">الو ايفا200مل </t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>برمنجنات بوتاسيوم</t>
   </si>
   <si>
@@ -554,18 +563,27 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
+    <t>ديتول صغير</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">زيت شعر املا 180 مل </t>
   </si>
   <si>
     <t>85.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">سباركل شامبو وبلسم </t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>30:0</t>
   </si>
   <si>
@@ -596,6 +614,9 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
@@ -611,6 +632,12 @@
     <t>قطن 50جم</t>
   </si>
   <si>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -632,13 +659,19 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>مسك الرمان</t>
+  </si>
+  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
     <t>32:0</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 7:22 PM</t>
+    <t>نيفيا سوفت كريم 50 مل</t>
+  </si>
+  <si>
+    <t>Tuesday, 2 September, 2025 7:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3028,7 +3061,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3061,7 +3094,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3071,11 +3104,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3087,14 +3120,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3104,11 +3137,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3120,14 +3153,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3137,14 +3170,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3153,14 +3186,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3170,14 +3203,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3193,7 +3226,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3203,11 +3236,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3219,14 +3252,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3236,14 +3269,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3252,14 +3285,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3269,14 +3302,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3285,14 +3318,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3302,11 +3335,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3318,14 +3351,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3335,11 +3368,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3351,14 +3384,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3368,11 +3401,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3384,14 +3417,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3401,11 +3434,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3417,14 +3450,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3434,11 +3467,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3450,14 +3483,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3467,49 +3500,280 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>207</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>208</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>109</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>181</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>209</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>108</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>109</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>210</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>212</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>34</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>109</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>129</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>213</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>214</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>109</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>126</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>216</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>98</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>109</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>115</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>217</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>218</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>109</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>115</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q79" s="12">
         <v>90</v>
       </c>
     </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3101.2849999999999</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>209</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>210</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>211</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>219</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>108</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>109</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>99</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3343.2849999999999</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>220</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>221</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>222</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3853,10 +4117,45 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -146,6 +146,18 @@
     <t>110.00</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -242,270 +254,276 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>FAMOTAK 40MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
     <t>26.00</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) 355ML SUSP.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>MENTO DROPS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>NYSTATIN 100 000 I.U./ML 30ML SUSP.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>POLYFRESH ADVANCED EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>-55.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>-37.6000</t>
+  </si>
+  <si>
+    <t>QUADRIDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
+    <t>VELABACK CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>26.0000</t>
   </si>
   <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>MAALOX PLUS (LEMON FLAVOURED) 355ML SUSP.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>MENTO DROPS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>NYSTATIN 100 000 I.U./ML 30ML SUSP.</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>POLYFRESH ADVANCED EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
-  </si>
-  <si>
-    <t>-55.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:16</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>-37.6000</t>
-  </si>
-  <si>
-    <t>QUADRIDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>URGINAFECT 10MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>57.7500</t>
-  </si>
-  <si>
-    <t>VELABACK CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -671,7 +689,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 7:25 PM</t>
+    <t>Tuesday, 2 September, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1659,7 +1677,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1675,7 +1693,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1685,11 +1703,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1701,14 +1719,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1718,14 +1736,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1734,14 +1752,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1758,7 +1776,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1767,14 +1785,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1791,7 +1809,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1800,14 +1818,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1817,14 +1835,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1833,14 +1851,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1850,14 +1868,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1873,7 +1891,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1883,14 +1901,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1899,7 +1917,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1916,11 +1934,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1932,14 +1950,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1949,14 +1967,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1965,7 +1983,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1982,14 +2000,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1998,14 +2016,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2015,11 +2033,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2031,14 +2049,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2055,7 +2073,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2071,7 +2089,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2088,7 +2106,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2104,7 +2122,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2114,14 +2132,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2130,14 +2148,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2147,14 +2165,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2163,14 +2181,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2180,14 +2198,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2196,14 +2214,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2236,24 +2254,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2262,14 +2280,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2279,14 +2297,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2295,28 +2313,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2328,14 +2346,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2345,14 +2363,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2361,14 +2379,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2378,14 +2396,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2394,14 +2412,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2411,14 +2429,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2434,7 +2452,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2451,7 +2469,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>90</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2467,7 +2485,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2484,7 +2502,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2500,7 +2518,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2510,14 +2528,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2533,7 +2551,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2566,7 +2584,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2576,14 +2594,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2599,7 +2617,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2609,14 +2627,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2625,14 +2643,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2649,7 +2667,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2665,7 +2683,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2675,14 +2693,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2698,7 +2716,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2708,14 +2726,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2724,14 +2742,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2741,11 +2759,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2757,14 +2775,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2774,14 +2792,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2790,14 +2808,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2807,14 +2825,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2830,7 +2848,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2863,7 +2881,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2873,14 +2891,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2889,14 +2907,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2906,14 +2924,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2922,14 +2940,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2939,14 +2957,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2962,7 +2980,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2972,14 +2990,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2995,7 +3013,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3005,14 +3023,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>90</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3021,14 +3039,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3038,14 +3056,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3061,24 +3079,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3087,31 +3105,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3127,21 +3145,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3153,28 +3171,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3186,28 +3204,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3219,7 +3237,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3232,15 +3250,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3252,31 +3270,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3285,31 +3303,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3318,31 +3336,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>197</v>
-      </c>
-      <c t="s" r="Q68" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3358,13 +3376,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3375,7 +3393,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3391,21 +3409,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3417,28 +3435,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3450,28 +3468,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3483,28 +3501,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3516,28 +3534,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3549,28 +3567,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3582,28 +3600,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3615,28 +3633,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3648,28 +3666,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3681,31 +3699,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3714,66 +3732,132 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3343.2849999999999</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>220</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>221</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>222</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>223</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>224</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>115</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>121</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>225</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>114</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>115</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>105</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3411.0749999999998</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>226</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>227</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>228</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4152,10 +4236,20 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -290,6 +290,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GYNOZOL 200MG 6 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
   </si>
   <si>
@@ -308,6 +317,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t xml:space="preserve">LADAME  VAG.DOUSH</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -356,9 +374,6 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -591,9 +606,6 @@
   </si>
   <si>
     <t xml:space="preserve">زيت شعر املا 180 مل </t>
-  </si>
-  <si>
-    <t>85.0000</t>
   </si>
   <si>
     <t xml:space="preserve">سباركل شامبو وبلسم </t>
@@ -2089,7 +2101,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2122,7 +2134,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2139,7 +2151,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2155,7 +2167,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2194,15 +2206,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2214,14 +2226,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2231,14 +2243,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2247,14 +2259,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2264,14 +2276,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2280,14 +2292,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2320,24 +2332,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2346,14 +2358,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2363,14 +2375,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2379,20 +2391,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2419,7 +2431,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2429,14 +2441,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2452,7 +2464,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2469,7 +2481,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2485,7 +2497,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2495,14 +2507,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2511,14 +2523,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2528,14 +2540,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2544,14 +2556,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2561,14 +2573,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2577,14 +2589,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2594,14 +2606,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2610,14 +2622,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2627,11 +2639,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2643,14 +2655,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2664,10 +2676,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2676,14 +2688,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2693,14 +2705,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2716,7 +2728,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2726,14 +2738,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2742,14 +2754,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2759,14 +2771,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2775,14 +2787,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2799,7 +2811,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2815,7 +2827,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2825,11 +2837,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2848,7 +2860,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2865,7 +2877,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2881,7 +2893,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2891,14 +2903,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2914,7 +2926,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2947,7 +2959,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2957,14 +2969,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2973,14 +2985,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,14 +3002,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3006,14 +3018,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3023,14 +3035,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3039,14 +3051,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3056,14 +3068,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3072,14 +3084,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3089,14 +3101,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3105,14 +3117,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3122,14 +3134,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3138,20 +3150,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3162,7 +3174,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3178,13 +3190,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3192,10 +3204,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3204,28 +3216,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3237,28 +3249,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3270,28 +3282,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3316,15 +3328,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3336,31 +3348,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3369,31 +3381,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3402,31 +3414,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3435,31 +3447,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,28 +3480,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3508,21 +3520,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3534,28 +3546,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3574,21 +3586,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3607,21 +3619,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3633,28 +3645,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3666,28 +3678,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3706,17 +3718,17 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3739,21 +3751,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3778,18 +3790,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3798,66 +3810,132 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3411.0749999999998</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>226</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>227</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
         <v>228</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>103</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>126</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>229</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>120</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>103</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>111</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>3528.0749999999998</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>230</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>231</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>232</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4246,10 +4324,20 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -317,6 +317,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LADAME  VAG.DOUSH</t>
   </si>
   <si>
@@ -569,6 +578,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>XILONE FORTE 15MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -701,7 +719,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 7:26 PM</t>
+    <t>Tuesday, 2 September, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2200,17 +2218,17 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2233,24 +2251,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2266,7 +2284,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2276,14 +2294,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2292,14 +2310,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2309,11 +2327,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2325,14 +2343,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2349,7 +2367,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2365,7 +2383,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2382,7 +2400,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2398,21 +2416,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2424,31 +2442,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2497,7 +2515,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2507,11 +2525,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2540,14 +2558,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2563,7 +2581,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2596,7 +2614,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2613,7 +2631,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2629,7 +2647,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2646,7 +2664,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2662,7 +2680,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2672,14 +2690,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2695,7 +2713,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2705,14 +2723,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2761,7 +2779,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2771,14 +2789,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2804,11 +2822,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2841,10 +2859,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2853,14 +2871,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2870,11 +2888,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2893,7 +2911,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2903,11 +2921,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2919,14 +2937,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2936,14 +2954,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2959,7 +2977,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2969,11 +2987,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>26</v>
@@ -2985,14 +3003,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3002,7 +3020,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3025,7 +3043,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3035,14 +3053,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3068,11 +3086,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3091,7 +3109,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3101,14 +3119,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3124,7 +3142,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3141,7 +3159,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3157,7 +3175,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3167,14 +3185,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3204,10 +3222,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3216,28 +3234,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3249,31 +3267,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3289,21 +3307,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3315,28 +3333,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3348,28 +3366,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3381,7 +3399,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3394,15 +3412,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3414,31 +3432,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3447,31 +3465,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3480,31 +3498,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>207</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3520,13 +3538,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3537,7 +3555,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3553,21 +3571,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3579,28 +3597,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3612,28 +3630,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3645,28 +3663,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3678,28 +3696,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3711,28 +3729,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3744,28 +3762,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3777,28 +3795,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3810,28 +3828,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3843,31 +3861,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3876,66 +3894,132 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>3528.0749999999998</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>230</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>231</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
-        <v>232</v>
-      </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>233</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>234</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>106</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>129</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>235</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>123</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>106</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>114</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>3642.0749999999998</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>236</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>237</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>238</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4334,10 +4418,20 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -581,10 +581,13 @@
     <t>XILONE FORTE 15MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
+    <t>-1:0</t>
+  </si>
+  <si>
     <t>69.00</t>
   </si>
   <si>
-    <t>69.0000</t>
+    <t>138.0000</t>
   </si>
   <si>
     <t>ZYRTEC 10MG 20 TAB</t>
@@ -710,6 +713,12 @@
     <t>مسك الرمان</t>
   </si>
   <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
@@ -719,7 +728,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 7:32 PM</t>
+    <t>Tuesday, 2 September, 2025 7:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3241,7 +3250,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3251,14 +3260,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3267,7 +3276,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3284,7 +3293,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3300,7 +3309,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3317,11 +3326,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3333,7 +3342,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3350,11 +3359,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3366,7 +3375,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3399,7 +3408,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3416,11 +3425,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3432,7 +3441,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3465,7 +3474,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3498,7 +3507,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3519,10 +3528,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3531,7 +3540,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3548,11 +3557,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>86</v>
@@ -3564,7 +3573,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3581,11 +3590,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3597,7 +3606,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3614,11 +3623,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3630,7 +3639,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3663,7 +3672,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3680,11 +3689,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3696,7 +3705,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3713,11 +3722,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3729,7 +3738,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3746,11 +3755,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3762,14 +3771,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3779,11 +3788,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3795,7 +3804,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3812,11 +3821,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3828,7 +3837,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3861,14 +3870,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3882,7 +3891,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3894,7 +3903,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3927,14 +3936,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3944,14 +3953,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3960,14 +3969,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3977,49 +3986,82 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>238</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>123</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>106</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>114</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>115</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>3642.0749999999998</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>236</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>237</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>238</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>3731.0749999999998</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>239</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>240</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>241</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4428,10 +4470,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -149,9 +161,6 @@
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -272,6 +281,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
   </si>
   <si>
@@ -512,6 +530,15 @@
     <t>4:1</t>
   </si>
   <si>
+    <t>UNICTAM 1.5 GM I.M/I.V. VIAL</t>
+  </si>
+  <si>
+    <t>336.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>URGINAFECT 10MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -542,9 +569,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>26.0000</t>
   </si>
   <si>
@@ -623,9 +647,6 @@
     <t>17.00</t>
   </si>
   <si>
-    <t>17.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">زيت شعر املا 180 مل </t>
   </si>
   <si>
@@ -635,7 +656,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>30:0</t>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>31:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -644,9 +668,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
@@ -728,7 +749,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 7:47 PM</t>
+    <t>Tuesday, 2 September, 2025 7:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1551,7 +1572,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1600,7 +1621,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1610,14 +1631,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1626,14 +1647,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1643,14 +1664,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1659,14 +1680,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1676,11 +1697,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>26</v>
@@ -1699,7 +1720,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1709,11 +1730,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>26</v>
@@ -1725,14 +1746,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1742,14 +1763,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1758,14 +1779,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1798,7 +1819,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1815,7 +1836,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1831,7 +1852,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1841,14 +1862,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1857,14 +1878,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1874,14 +1895,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>70</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>67</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1897,7 +1918,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1907,14 +1928,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1940,14 +1961,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1956,14 +1977,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1980,7 +2001,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1996,7 +2017,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2013,7 +2034,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2029,7 +2050,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2043,10 +2064,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2062,7 +2083,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2076,10 +2097,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2095,7 +2116,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2112,7 +2133,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2128,7 +2149,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2161,7 +2182,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2194,7 +2215,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2211,7 +2232,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2227,7 +2248,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2260,24 +2281,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2293,7 +2314,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2310,7 +2331,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2332,15 +2353,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2352,14 +2373,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2369,14 +2390,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2385,14 +2406,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2402,14 +2423,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2418,14 +2439,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2458,24 +2479,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2484,14 +2505,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2501,14 +2522,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2524,21 +2545,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2550,14 +2571,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2567,14 +2588,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2583,14 +2604,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2600,14 +2621,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2616,14 +2637,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2633,14 +2654,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2656,7 +2677,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2673,7 +2694,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2689,7 +2710,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2706,7 +2727,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2722,7 +2743,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2732,14 +2753,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2755,7 +2776,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2788,7 +2809,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2798,14 +2819,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2821,7 +2842,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2831,14 +2852,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2847,14 +2868,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2871,7 +2892,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2887,7 +2908,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2897,14 +2918,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2920,7 +2941,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2930,14 +2951,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2946,14 +2967,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2963,11 +2984,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2979,14 +3000,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2996,14 +3017,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3012,14 +3033,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3029,14 +3050,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3045,14 +3066,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3062,14 +3083,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3078,14 +3099,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3095,14 +3116,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3111,14 +3132,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3128,14 +3149,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3144,14 +3165,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3161,11 +3182,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3177,14 +3198,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3194,14 +3215,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3217,7 +3238,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3227,14 +3248,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3243,14 +3264,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3260,14 +3281,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3276,14 +3297,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3293,14 +3314,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3309,31 +3330,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3342,20 +3363,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3366,7 +3387,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3382,24 +3403,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3408,28 +3429,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3441,28 +3462,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3474,28 +3495,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3507,31 +3528,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3540,31 +3561,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3573,28 +3594,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>31</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3606,31 +3627,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3639,31 +3660,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3679,21 +3700,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3705,28 +3726,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3738,28 +3759,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3771,28 +3792,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3804,28 +3825,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3837,28 +3858,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3870,28 +3891,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3910,21 +3931,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3936,28 +3957,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3969,31 +3990,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4002,66 +4023,165 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>3731.0749999999998</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>239</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>240</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>241</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>242</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>112</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>149</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>243</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>244</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>112</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>135</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>245</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>129</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>112</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>120</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4134.0749999999998</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>246</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>247</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>248</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4475,10 +4595,25 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -749,7 +749,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 7:50 PM</t>
+    <t>Tuesday, 2 September, 2025 7:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>110.00</t>
   </si>
   <si>
+    <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -353,6 +362,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -551,9 +569,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -749,7 +764,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 7:55 PM</t>
+    <t>Tuesday, 2 September, 2025 8:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1720,7 +1735,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1737,7 +1752,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1753,7 +1768,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1763,11 +1778,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>26</v>
@@ -1779,14 +1794,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1796,14 +1811,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1812,14 +1827,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1852,7 +1867,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1869,7 +1884,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1885,7 +1900,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1895,14 +1910,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1911,14 +1926,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1928,14 +1943,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>70</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1951,7 +1966,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1961,14 +1976,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1994,14 +2009,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2010,14 +2025,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2034,7 +2049,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2050,7 +2065,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2067,7 +2082,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2083,7 +2098,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2097,10 +2112,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2116,7 +2131,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2130,10 +2145,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2149,7 +2164,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2166,7 +2181,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2215,7 +2230,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2248,7 +2263,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2281,7 +2296,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2298,7 +2313,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2314,7 +2329,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2331,7 +2346,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2347,17 +2362,17 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2380,24 +2395,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2413,7 +2428,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2423,11 +2438,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2439,14 +2454,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2456,14 +2471,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2472,14 +2487,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2489,14 +2504,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2505,14 +2520,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2545,24 +2560,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2571,14 +2586,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2588,14 +2603,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2611,21 +2626,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2637,14 +2652,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,14 +2669,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2670,14 +2685,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2687,14 +2702,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2703,14 +2718,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2720,14 +2735,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2743,7 +2758,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2760,7 +2775,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2776,7 +2791,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2793,7 +2808,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2809,7 +2824,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,14 +2834,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2842,7 +2857,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2875,7 +2890,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2885,14 +2900,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2908,7 +2923,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2918,14 +2933,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2934,14 +2949,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2958,7 +2973,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2974,7 +2989,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,14 +2999,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3007,7 +3022,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3017,14 +3032,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3033,14 +3048,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,11 +3065,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3066,14 +3081,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3083,14 +3098,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3099,14 +3114,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3116,14 +3131,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3139,7 +3154,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,14 +3164,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3165,14 +3180,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3182,11 +3197,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3198,14 +3213,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,14 +3230,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,14 +3263,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3264,14 +3279,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,14 +3296,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3304,7 +3319,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,14 +3329,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,14 +3362,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3363,14 +3378,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,14 +3395,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,14 +3428,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3429,20 +3444,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3453,7 +3468,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3469,13 +3484,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3483,10 +3498,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,28 +3510,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3528,28 +3543,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3561,28 +3576,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3594,7 +3609,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3607,15 +3622,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3627,31 +3642,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3660,31 +3675,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3700,24 +3715,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>221</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3733,13 +3748,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3747,10 +3762,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3759,28 +3774,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3792,28 +3807,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3825,28 +3840,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3858,28 +3873,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3891,28 +3906,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3924,28 +3939,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3964,21 +3979,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3990,28 +4005,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4023,28 +4038,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4056,28 +4071,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4089,31 +4104,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4122,66 +4137,132 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4134.0749999999998</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>246</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>247</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>248</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>249</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>115</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>141</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>250</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>135</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>115</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>126</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4196.0749999999998</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>251</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>252</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>253</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4610,10 +4691,20 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -683,6 +683,15 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>سلاكه اسنان خشب</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
@@ -728,12 +737,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
@@ -749,6 +752,9 @@
     <t>مسك الرمان</t>
   </si>
   <si>
+    <t xml:space="preserve">معجون سيجنال 120 مل </t>
+  </si>
+  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
@@ -764,7 +770,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 8:00 PM</t>
+    <t>Tuesday, 2 September, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3781,7 +3787,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3814,7 +3820,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,11 +3863,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3873,14 +3879,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3890,11 +3896,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3906,7 +3912,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3923,11 +3929,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3946,7 +3952,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3956,11 +3962,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3972,14 +3978,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>237</v>
+        <v>92</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4005,14 +4011,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4022,11 +4028,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4045,7 +4051,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4055,11 +4061,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4078,7 +4084,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4088,11 +4094,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4104,14 +4110,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4121,11 +4127,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4144,7 +4150,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4154,11 +4160,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4170,14 +4176,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4187,14 +4193,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4203,14 +4209,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4220,49 +4226,115 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>250</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>251</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>115</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>141</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>252</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>135</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>115</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>126</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
         <v>127</v>
       </c>
-      <c t="s" r="Q92" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4196.0749999999998</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>251</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>252</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4266.0749999999998</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
         <v>253</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>254</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>255</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4701,10 +4773,20 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -152,6 +152,21 @@
     <t>147.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -287,9 +302,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
@@ -770,7 +782,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 8:14 PM</t>
+    <t>Tuesday, 2 September, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1708,7 +1720,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1718,14 +1730,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1734,7 +1746,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1751,14 +1763,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1767,14 +1779,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1784,14 +1796,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1800,14 +1812,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1817,11 +1829,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>26</v>
@@ -1833,14 +1845,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1850,14 +1862,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1866,14 +1878,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1883,11 +1895,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1899,14 +1911,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1916,14 +1928,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1932,14 +1944,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1949,14 +1961,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1972,7 +1984,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1982,14 +1994,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1998,14 +2010,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2015,14 +2027,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2031,14 +2043,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2048,14 +2060,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2064,14 +2076,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2081,14 +2093,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2097,14 +2109,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2114,14 +2126,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2130,14 +2142,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2147,14 +2159,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2163,14 +2175,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2180,14 +2192,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2196,14 +2208,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2213,14 +2225,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2229,7 +2241,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2246,11 +2258,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2262,14 +2274,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2279,11 +2291,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2295,14 +2307,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2312,11 +2324,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2328,14 +2340,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2345,14 +2357,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2361,14 +2373,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2378,14 +2390,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2394,28 +2406,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2427,28 +2439,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2460,14 +2472,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2477,14 +2489,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2493,14 +2505,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2510,14 +2522,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2526,14 +2538,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2543,11 +2555,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2566,7 +2578,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2576,14 +2588,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2592,14 +2604,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2609,14 +2621,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2625,20 +2637,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2665,24 +2677,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2691,14 +2703,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2708,14 +2720,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2724,14 +2736,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2741,11 +2753,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2757,14 +2769,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2774,14 +2786,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2790,14 +2802,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2807,11 +2819,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -2823,14 +2835,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2840,14 +2852,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2856,14 +2868,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2873,14 +2885,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2889,14 +2901,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2910,10 +2922,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2922,14 +2934,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2939,14 +2951,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2955,7 +2967,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2972,11 +2984,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2988,14 +3000,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3005,14 +3017,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3021,14 +3033,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3038,7 +3050,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3061,7 +3073,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3071,14 +3083,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3087,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3104,11 +3116,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3120,14 +3132,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3137,11 +3149,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3153,14 +3165,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3170,14 +3182,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3186,14 +3198,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3203,14 +3215,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3219,14 +3231,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3236,11 +3248,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3252,14 +3264,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3269,11 +3281,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3285,14 +3297,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3302,14 +3314,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3318,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3335,11 +3347,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3351,14 +3363,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3368,14 +3380,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3384,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3401,14 +3413,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3417,14 +3429,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3441,7 +3453,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3474,7 +3486,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3490,7 +3502,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3500,14 +3512,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3516,31 +3528,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3549,28 +3561,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3582,28 +3594,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3615,28 +3627,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3648,28 +3660,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3681,28 +3693,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3714,31 +3726,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>221</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3747,31 +3759,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>70</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3780,31 +3792,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3813,28 +3825,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3846,28 +3858,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3879,28 +3891,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3912,28 +3924,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3945,7 +3957,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3958,15 +3970,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3978,28 +3990,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4011,28 +4023,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4044,28 +4056,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4077,28 +4089,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4110,28 +4122,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4143,28 +4155,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4176,28 +4188,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4209,28 +4221,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4242,31 +4254,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4275,66 +4287,99 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4266.0749999999998</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>253</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>254</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>255</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>256</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>139</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>119</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>130</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4352.0749999999998</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>257</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>258</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>259</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4783,10 +4828,15 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -782,7 +782,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 8:21 PM</t>
+    <t>Tuesday, 2 September, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
     <t>78.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
   </si>
   <si>
@@ -164,9 +176,6 @@
     <t>86.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -239,9 +248,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>47.5200</t>
   </si>
   <si>
@@ -260,10 +266,13 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>0:3</t>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>107.6400</t>
+  </si>
+  <si>
+    <t>2:3</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -356,6 +365,18 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>402.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -497,9 +518,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:3</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -509,7 +527,13 @@
     <t>72.00</t>
   </si>
   <si>
-    <t>72.0000</t>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
   </si>
   <si>
     <t>POLYFRESH ADVANCED EYE DROPS 10 ML</t>
@@ -560,13 +584,16 @@
     <t>4:1</t>
   </si>
   <si>
+    <t>TRYPSALIN 20 TABS</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>UNICTAM 1.5 GM I.M/I.V. VIAL</t>
   </si>
   <si>
-    <t>336.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
+    <t>672.0000</t>
   </si>
   <si>
     <t>URGINAFECT 10MG 20 F.C. TAB</t>
@@ -620,13 +647,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8342:0</t>
+    <t>8333:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>XILONE FORTE 15MG/5ML SYRUP 100 ML</t>
@@ -665,6 +692,12 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>67:0</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -680,13 +713,22 @@
     <t xml:space="preserve">سباركل شامبو وبلسم </t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>31:0</t>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>37:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -695,6 +737,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>سلاكه اسنان خشب</t>
   </si>
   <si>
@@ -743,9 +788,6 @@
     <t>قطن ازن صغير</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -758,9 +800,6 @@
     <t>33:0</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>مسك الرمان</t>
   </si>
   <si>
@@ -782,7 +821,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 8:24 PM</t>
+    <t>Tuesday, 2 September, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1473,7 +1512,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1482,14 +1521,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1499,14 +1538,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1515,14 +1554,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1539,7 +1578,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1548,14 +1587,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1565,14 +1604,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1581,14 +1620,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1605,7 +1644,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1638,7 +1677,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1671,7 +1710,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1687,7 +1726,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1697,14 +1736,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1713,14 +1752,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1730,14 +1769,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1746,14 +1785,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1767,10 +1806,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1779,14 +1818,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1796,14 +1835,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1819,7 +1858,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1836,7 +1875,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1852,7 +1891,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1862,14 +1901,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1878,14 +1917,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1895,14 +1934,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1911,14 +1950,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1935,7 +1974,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1951,7 +1990,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1968,7 +2007,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1984,7 +2023,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1994,14 +2033,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2010,14 +2049,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2027,14 +2066,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2043,14 +2082,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2060,14 +2099,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2076,14 +2115,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2093,14 +2132,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2109,14 +2148,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2133,7 +2172,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2149,7 +2188,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2166,7 +2205,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2182,7 +2221,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2196,10 +2235,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2208,14 +2247,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2225,14 +2264,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2248,7 +2287,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2265,7 +2304,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2281,7 +2320,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2298,7 +2337,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2314,7 +2353,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2331,7 +2370,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2347,7 +2386,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2364,7 +2403,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2380,7 +2419,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2397,7 +2436,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2413,7 +2452,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2430,7 +2469,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2446,24 +2485,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2472,14 +2511,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2489,14 +2528,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2505,31 +2544,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2538,14 +2577,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2555,14 +2594,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2571,14 +2610,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2588,14 +2627,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2604,14 +2643,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2621,14 +2660,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2644,7 +2683,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2654,14 +2693,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2670,20 +2709,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2694,7 +2733,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2710,7 +2749,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2720,14 +2759,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2736,31 +2775,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2769,14 +2808,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2786,14 +2825,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2802,7 +2841,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2819,14 +2858,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2835,14 +2874,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2852,14 +2891,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2868,14 +2907,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2885,14 +2924,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2901,14 +2940,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,14 +2957,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2934,14 +2973,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2955,10 +2994,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2967,14 +3006,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2984,14 +3023,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3000,14 +3039,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3017,14 +3056,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3040,7 +3079,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3050,14 +3089,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3073,7 +3112,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3083,14 +3122,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3099,14 +3138,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3116,14 +3155,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3139,7 +3178,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3149,14 +3188,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3165,14 +3204,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3182,14 +3221,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3198,14 +3237,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3215,14 +3254,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>185</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3238,7 +3277,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3255,7 +3294,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3271,7 +3310,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3281,14 +3320,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3297,14 +3336,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3314,14 +3353,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3337,7 +3376,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,14 +3386,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3363,14 +3402,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,14 +3419,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3396,14 +3435,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,14 +3452,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3436,7 +3475,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3453,7 +3492,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3469,7 +3508,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,14 +3518,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3495,14 +3534,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,14 +3551,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3528,14 +3567,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3545,14 +3584,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3561,31 +3600,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3594,31 +3633,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3627,28 +3666,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3667,13 +3706,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3681,10 +3720,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3700,24 +3739,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3726,31 +3765,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3759,31 +3798,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3792,31 +3831,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3825,31 +3864,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3858,31 +3897,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3891,31 +3930,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3924,31 +3963,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3957,31 +3996,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3990,31 +4029,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4023,31 +4062,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4056,31 +4095,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4089,31 +4128,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4122,31 +4161,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4155,31 +4194,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4188,31 +4227,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>146</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4221,31 +4260,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4254,31 +4293,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4287,31 +4326,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4320,66 +4359,264 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>261</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>262</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>126</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>163</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>263</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>136</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>126</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>152</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>264</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>136</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>126</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>35</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>265</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>266</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>126</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>166</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>267</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>268</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>126</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>152</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q100" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4352.0749999999998</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>257</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>258</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>259</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>269</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>146</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>126</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>137</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5562.0749999999998</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>270</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>271</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>272</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4833,10 +5070,40 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -47,486 +47,519 @@
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>83.8800</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>36.00</t>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>-14.3000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AVOSOYA 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CEFAXONE 500MG I.M. VIAL</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>107.6400</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FAMOTAK 40MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GYNOZOL 200MG 6 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>402.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADAME  VAG.DOUSH</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) 355ML SUSP.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>MENTO DROPS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>NYSTATIN 100 000 I.U./ML 30ML SUSP.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
   </si>
   <si>
     <t>72.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>-14.3000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AVOSOYA 20 CAPSULES</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CEFAXONE 500MG I.M. VIAL</t>
-  </si>
-  <si>
-    <t>147.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>107.6400</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FAMOTAK 40MG 20 TABLETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GYNOZOL 200MG 6 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>402.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADAME  VAG.DOUSH</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>MAALOX PLUS (LEMON FLAVOURED) 355ML SUSP.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>MENTO DROPS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>NYSTATIN 100 000 I.U./ML 30ML SUSP.</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -695,7 +728,7 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>67:0</t>
+    <t>66:0</t>
   </si>
   <si>
     <t>حلاوة حرير</t>
@@ -725,10 +758,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>37:0</t>
+    <t>38:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -797,7 +827,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>33:0</t>
+    <t>32:0</t>
   </si>
   <si>
     <t>مسك الرمان</t>
@@ -815,13 +845,10 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>32:0</t>
-  </si>
-  <si>
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 8:29 PM</t>
+    <t>Tuesday, 2 September, 2025 8:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1512,7 +1539,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1521,14 +1548,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1538,14 +1565,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1554,14 +1581,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1571,14 +1598,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1587,14 +1614,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1604,14 +1631,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1620,14 +1647,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1637,14 +1664,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1653,14 +1680,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1677,7 +1704,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1710,7 +1737,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1743,7 +1770,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1809,7 +1836,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1818,14 +1845,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1835,14 +1862,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1851,14 +1878,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1868,14 +1895,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1884,14 +1911,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1901,14 +1928,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1917,14 +1944,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1941,7 +1968,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1957,7 +1984,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1967,14 +1994,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1983,14 +2010,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2007,7 +2034,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2023,7 +2050,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2040,7 +2067,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2056,7 +2083,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2066,14 +2093,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2082,14 +2109,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2099,14 +2126,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>80</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2122,7 +2149,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2132,14 +2159,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2148,14 +2175,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2165,14 +2192,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2181,14 +2208,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2198,14 +2225,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2214,14 +2241,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2238,7 +2265,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2254,7 +2281,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2268,10 +2295,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2280,14 +2307,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2297,14 +2324,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2313,7 +2340,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2330,14 +2357,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2353,7 +2380,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2370,7 +2397,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2386,7 +2413,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2403,7 +2430,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2419,7 +2446,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2436,7 +2463,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2462,14 +2489,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2478,14 +2505,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2495,14 +2522,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2511,14 +2538,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2528,14 +2555,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2544,31 +2571,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2577,14 +2604,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2594,14 +2621,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2610,14 +2637,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2627,14 +2654,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2643,31 +2670,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2676,14 +2703,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2700,7 +2727,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2716,7 +2743,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2733,7 +2760,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2749,7 +2776,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2759,14 +2786,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2775,31 +2802,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2808,14 +2835,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2825,14 +2852,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2841,14 +2868,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2858,14 +2885,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2874,31 +2901,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2907,14 +2934,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2924,14 +2951,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2947,7 +2974,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2961,10 +2988,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2973,14 +3000,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,14 +3017,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3006,14 +3033,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3023,14 +3050,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3039,14 +3066,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3056,14 +3083,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3072,14 +3099,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3089,14 +3116,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3112,7 +3139,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3129,7 +3156,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3145,7 +3172,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3162,7 +3189,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3178,7 +3205,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3188,14 +3215,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3211,7 +3238,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3221,14 +3248,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3237,14 +3264,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3254,14 +3281,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3277,7 +3304,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3294,7 +3321,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3310,7 +3337,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3320,14 +3347,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3343,7 +3370,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3353,14 +3380,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3369,14 +3396,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3386,14 +3413,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3402,14 +3429,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3419,14 +3446,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3435,14 +3462,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3452,14 +3479,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3468,14 +3495,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3485,14 +3512,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3501,14 +3528,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3518,14 +3545,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3534,14 +3561,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3551,14 +3578,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3567,14 +3594,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3584,14 +3611,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3600,14 +3627,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3617,14 +3644,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3633,14 +3660,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3650,14 +3677,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>36</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>214</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3666,14 +3693,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,14 +3710,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3699,14 +3726,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3716,14 +3743,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3732,28 +3759,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3765,31 +3792,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3798,31 +3825,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3831,31 +3858,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3864,31 +3891,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3897,31 +3924,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>127</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3930,31 +3957,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3963,31 +3990,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3996,31 +4023,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>239</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4029,31 +4056,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>85</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>242</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4062,31 +4089,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>36</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4095,31 +4122,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4128,31 +4155,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4161,31 +4188,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4201,24 +4228,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4227,31 +4254,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4260,31 +4287,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4293,31 +4320,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4326,31 +4353,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4359,31 +4386,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4392,31 +4419,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>262</v>
+        <v>55</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4425,31 +4452,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4458,31 +4485,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4491,31 +4518,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4524,31 +4551,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4557,66 +4584,198 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5562.0749999999998</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>270</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>271</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>274</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>144</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>134</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>36</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>275</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>276</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>134</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>176</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>277</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
         <v>272</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>134</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>162</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>278</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>154</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>134</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>145</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5837.5050000000001</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>279</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>280</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>281</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5100,10 +5259,30 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -848,7 +848,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 8:30 PM</t>
+    <t>Tuesday, 2 September, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -380,6 +380,18 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>339.00</t>
+  </si>
+  <si>
+    <t>339.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -410,12 +422,21 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>KIDZOS LOTION</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LADAME  VAG.DOUSH</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>85.0000</t>
   </si>
   <si>
@@ -473,9 +494,6 @@
     <t>MENTO DROPS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -605,12 +623,6 @@
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -801,6 +813,9 @@
   </si>
   <si>
     <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>فرشاه فوكس</t>
   </si>
   <si>
     <t>فرشه شعر اطفال الجو</t>
@@ -2578,7 +2593,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2588,14 +2603,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2604,14 +2619,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2621,14 +2636,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2644,7 +2659,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2661,7 +2676,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2670,28 +2685,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2703,28 +2718,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2736,31 +2751,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2769,14 +2784,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2786,11 +2801,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2802,14 +2817,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2819,14 +2834,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2835,14 +2850,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2852,14 +2867,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2875,7 +2890,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2885,11 +2900,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2901,20 +2916,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2925,7 +2940,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2941,7 +2956,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2951,14 +2966,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2967,31 +2982,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3000,14 +3015,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3017,14 +3032,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3033,14 +3048,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3050,14 +3065,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3066,14 +3081,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3083,14 +3098,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3099,14 +3114,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3116,14 +3131,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3139,7 +3154,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3156,7 +3171,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3172,7 +3187,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3189,7 +3204,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3205,7 +3220,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3219,10 +3234,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3248,11 +3263,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3264,14 +3279,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3281,11 +3296,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3337,7 +3352,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3347,14 +3362,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3363,14 +3378,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3387,7 +3402,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3403,7 +3418,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3413,14 +3428,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3436,7 +3451,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3446,14 +3461,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3462,14 +3477,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3479,11 +3494,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3495,14 +3510,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3512,11 +3527,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3535,7 +3550,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3545,14 +3560,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3568,7 +3583,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3578,14 +3593,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3594,14 +3609,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3611,14 +3626,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3634,7 +3649,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3667,7 +3682,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3677,14 +3692,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3700,7 +3715,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3710,14 +3725,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3726,14 +3741,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3743,14 +3758,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3759,14 +3774,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3776,14 +3791,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3792,14 +3807,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3809,14 +3824,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>225</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3825,14 +3840,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3842,14 +3857,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3858,14 +3873,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3875,14 +3890,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3891,31 +3906,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3924,31 +3939,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3957,31 +3972,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3990,28 +4005,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4023,31 +4038,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4056,28 +4071,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4089,7 +4104,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4102,15 +4117,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>36</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4122,31 +4137,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>85</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4162,24 +4177,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>249</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4188,31 +4203,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>252</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4221,31 +4236,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4254,31 +4269,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4287,28 +4302,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4320,28 +4335,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4360,21 +4375,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4386,28 +4401,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4426,21 +4441,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4459,21 +4474,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4492,24 +4507,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4518,28 +4533,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4551,31 +4566,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4584,31 +4599,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4617,28 +4632,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4650,31 +4665,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4683,31 +4698,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>272</v>
+        <v>151</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4716,66 +4731,165 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5837.5050000000001</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>279</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>280</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
         <v>281</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>138</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>182</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>282</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>277</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>138</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>168</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>283</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>124</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>138</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>152</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6264.5050000000001</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>284</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>285</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>286</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5279,10 +5393,25 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -158,6 +158,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CANDALKAN 8MG 14 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>CEFAXONE 500MG I.M. VIAL</t>
   </si>
   <si>
@@ -263,6 +275,12 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -272,6 +290,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -299,9 +326,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -383,9 +407,6 @@
     <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>339.00</t>
   </si>
   <si>
@@ -461,6 +482,12 @@
     <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -551,9 +578,6 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -770,7 +794,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>38:0</t>
+    <t>39:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -863,7 +887,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 8:32 PM</t>
+    <t>Tuesday, 2 September, 2025 8:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1801,7 +1825,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1811,14 +1835,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1827,14 +1851,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1844,14 +1868,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1860,14 +1884,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1884,7 +1908,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1893,14 +1917,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1910,11 +1934,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>31</v>
@@ -1926,7 +1950,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1943,14 +1967,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1959,14 +1983,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1976,14 +2000,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1992,14 +2016,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2009,11 +2033,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>31</v>
@@ -2025,14 +2049,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2049,7 +2073,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2065,7 +2089,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2075,11 +2099,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2091,14 +2115,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2108,14 +2132,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2124,14 +2148,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2141,14 +2165,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2164,7 +2188,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2174,14 +2198,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2190,14 +2214,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2207,14 +2231,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2223,14 +2247,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2240,14 +2264,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2256,14 +2280,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2273,14 +2297,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2289,14 +2313,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2306,14 +2330,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2322,14 +2346,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2339,14 +2363,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2355,14 +2379,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2372,14 +2396,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2395,7 +2419,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2412,7 +2436,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2428,7 +2452,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2445,7 +2469,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2475,10 +2499,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2487,14 +2511,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2504,7 +2528,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2527,7 +2551,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2560,7 +2584,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2593,7 +2617,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2603,14 +2627,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2619,14 +2643,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2636,14 +2660,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2652,14 +2676,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2669,14 +2693,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2685,14 +2709,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2702,11 +2726,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2718,31 +2742,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2751,7 +2775,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2764,18 +2788,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2784,7 +2808,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2801,11 +2825,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2817,31 +2841,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2850,7 +2874,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2863,15 +2887,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2890,7 +2914,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2900,11 +2924,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2916,14 +2940,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2933,11 +2957,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>31</v>
@@ -2949,7 +2973,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2966,11 +2990,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2982,28 +3006,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3015,14 +3039,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3032,14 +3056,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3048,14 +3072,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3065,11 +3089,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>31</v>
@@ -3081,14 +3105,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3098,11 +3122,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3114,24 +3138,24 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3154,7 +3178,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3164,11 +3188,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>31</v>
@@ -3180,14 +3204,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3197,11 +3221,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>31</v>
@@ -3213,14 +3237,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3230,14 +3254,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3246,14 +3270,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3263,11 +3287,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3279,14 +3303,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3296,11 +3320,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3312,14 +3336,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3329,14 +3353,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3345,14 +3369,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3362,14 +3386,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3378,14 +3402,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3395,11 +3419,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3411,14 +3435,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3428,14 +3452,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3444,14 +3468,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3461,14 +3485,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3477,14 +3501,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3494,14 +3518,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3510,14 +3534,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3527,11 +3551,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3543,14 +3567,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3560,14 +3584,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3576,14 +3600,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3593,14 +3617,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3609,14 +3633,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3626,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3642,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3659,14 +3683,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3675,14 +3699,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3692,14 +3716,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3715,7 +3739,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3725,14 +3749,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3741,14 +3765,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3758,14 +3782,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3781,7 +3805,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3791,14 +3815,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3807,14 +3831,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3824,11 +3848,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>31</v>
@@ -3840,14 +3864,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3857,14 +3881,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3873,14 +3897,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3890,14 +3914,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>229</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3906,14 +3930,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3923,14 +3947,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3939,14 +3963,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3956,11 +3980,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>31</v>
@@ -3972,31 +3996,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4005,31 +4029,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4038,31 +4062,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4071,31 +4095,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4104,28 +4128,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4144,21 +4168,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4170,31 +4194,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>37</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4203,31 +4227,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>133</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4236,31 +4260,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>253</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4269,31 +4293,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>91</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>256</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4302,28 +4326,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4335,31 +4359,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4368,31 +4392,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4401,31 +4425,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4434,28 +4458,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4474,21 +4498,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>168</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>169</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4500,28 +4524,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4533,28 +4557,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4566,28 +4590,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4599,31 +4623,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>258</v>
+        <v>177</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4632,28 +4656,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4665,31 +4689,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4698,28 +4722,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4731,31 +4755,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>36</v>
+        <v>266</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4764,28 +4788,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4797,31 +4821,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4830,66 +4854,198 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6264.5050000000001</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>284</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>287</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>160</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>145</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>36</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>288</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>289</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>145</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>190</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>290</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
         <v>285</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>286</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>145</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>177</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>291</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>50</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>145</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>161</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6426.5050000000001</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>292</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>293</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>294</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5408,10 +5564,30 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -887,7 +887,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 8:35 PM</t>
+    <t>Tuesday, 2 September, 2025 8:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>2:1</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -104,9 +119,6 @@
     <t>9.1200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AVOSOYA 20 CAPSULES</t>
   </si>
   <si>
@@ -338,6 +350,18 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>FAMOTAK 40MG 20 TABLETS</t>
   </si>
   <si>
@@ -494,12 +518,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -650,9 +668,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>TRYPSALIN 20 TABS</t>
   </si>
   <si>
@@ -692,9 +707,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -887,7 +899,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 8:37 PM</t>
+    <t>Tuesday, 2 September, 2025 8:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1660,7 +1672,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1670,14 +1682,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1686,14 +1698,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1703,11 +1715,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1719,14 +1731,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1736,14 +1748,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1752,14 +1764,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1809,7 +1821,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1842,7 +1854,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1858,7 +1870,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1868,14 +1880,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1884,14 +1896,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1901,14 +1913,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1917,14 +1929,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1941,7 +1953,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1950,14 +1962,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1967,14 +1979,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1983,14 +1995,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2000,11 +2012,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -2016,14 +2028,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2033,14 +2045,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2049,14 +2061,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2066,14 +2078,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2082,14 +2094,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2122,7 +2134,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2132,14 +2144,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2148,14 +2160,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2165,14 +2177,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2181,14 +2193,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2198,14 +2210,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2221,7 +2233,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2231,14 +2243,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2247,14 +2259,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2264,14 +2276,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2280,14 +2292,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2297,14 +2309,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2313,14 +2325,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2330,14 +2342,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2353,7 +2365,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2363,14 +2375,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2379,14 +2391,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2396,14 +2408,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2412,14 +2424,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2429,11 +2441,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2445,14 +2457,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2462,14 +2474,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2478,14 +2490,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2495,14 +2507,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2511,14 +2523,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2528,14 +2540,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2544,14 +2556,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2561,14 +2573,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2577,14 +2589,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2594,11 +2606,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2610,14 +2622,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2627,14 +2639,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2643,14 +2655,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2660,14 +2672,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2676,14 +2688,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2693,11 +2705,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2709,14 +2721,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2726,14 +2738,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2742,14 +2754,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2759,14 +2771,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2775,14 +2787,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2792,14 +2804,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>140</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2825,11 +2837,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2841,20 +2853,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2865,7 +2877,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2874,31 +2886,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2907,31 +2919,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2940,31 +2952,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2973,14 +2985,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2990,14 +3002,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3006,14 +3018,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3023,11 +3035,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3039,14 +3051,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3056,14 +3068,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3072,14 +3084,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3089,14 +3101,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3105,14 +3117,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3122,14 +3134,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3145,13 +3157,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3178,7 +3190,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3188,14 +3200,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3204,31 +3216,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3237,14 +3249,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3254,11 +3266,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3270,14 +3282,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3287,11 +3299,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3303,14 +3315,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3336,14 +3348,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3353,14 +3365,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3376,7 +3388,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3390,10 +3402,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3402,14 +3414,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3419,11 +3431,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3435,14 +3447,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3452,14 +3464,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3468,14 +3480,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3485,14 +3497,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3501,14 +3513,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3518,14 +3530,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3541,7 +3553,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3558,7 +3570,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3574,7 +3586,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3584,14 +3596,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3600,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3650,14 +3662,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3673,7 +3685,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3683,14 +3695,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3699,14 +3711,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3716,14 +3728,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3732,14 +3744,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3749,14 +3761,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3765,14 +3777,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3782,14 +3794,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3798,14 +3810,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,14 +3827,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3838,7 +3850,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3848,14 +3860,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3864,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3881,14 +3893,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3897,14 +3909,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,11 +3926,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3930,14 +3942,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3947,11 +3959,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>113</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3963,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3980,14 +3992,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4003,7 +4015,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,14 +4025,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4029,14 +4041,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,14 +4058,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>237</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4062,14 +4074,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>114</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,14 +4091,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4095,14 +4107,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4112,14 +4124,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>31</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4128,31 +4140,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4161,28 +4173,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4194,31 +4206,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4227,31 +4239,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4260,31 +4272,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>116</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4293,31 +4305,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,31 +4338,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4359,31 +4371,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>95</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>140</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4399,24 +4411,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>261</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,31 +4437,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>264</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4458,31 +4470,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4491,31 +4503,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4524,31 +4536,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4557,31 +4569,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4597,24 +4609,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4623,31 +4635,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4656,31 +4668,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4696,24 +4708,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4729,24 +4741,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>237</v>
+        <v>50</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4755,31 +4767,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>143</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4788,31 +4800,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4821,31 +4833,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>285</v>
+        <v>54</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4854,31 +4866,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4887,31 +4899,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>160</v>
+        <v>289</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4920,31 +4932,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>289</v>
+        <v>168</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4953,31 +4965,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>285</v>
+        <v>168</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -4986,66 +4998,132 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>50</v>
+        <v>293</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6426.5050000000001</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>292</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>293</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>294</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>289</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>153</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>183</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>295</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>54</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>153</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>115</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6521.2150000000001</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>296</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>297</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>298</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5584,10 +5662,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -705,6 +705,9 @@
   </si>
   <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.0000</t>
   </si>
   <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
@@ -4015,7 +4018,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4029,10 +4032,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4041,7 +4044,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4058,11 +4061,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4074,7 +4077,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4091,11 +4094,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4107,14 +4110,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,14 +4127,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4140,14 +4143,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4157,11 +4160,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>63</v>
@@ -4173,7 +4176,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4190,7 +4193,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4206,7 +4209,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4223,11 +4226,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>26</v>
@@ -4239,7 +4242,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4256,11 +4259,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>26</v>
@@ -4272,14 +4275,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4293,7 +4296,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>50</v>
@@ -4305,7 +4308,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4338,7 +4341,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4355,7 +4358,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4371,7 +4374,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4404,7 +4407,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4437,7 +4440,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4454,11 +4457,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>148</v>
@@ -4470,7 +4473,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4487,14 +4490,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>25</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4503,7 +4506,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4520,14 +4523,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4536,7 +4539,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4553,11 +4556,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>26</v>
@@ -4569,7 +4572,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4586,11 +4589,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>26</v>
@@ -4602,7 +4605,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4619,11 +4622,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>26</v>
@@ -4635,7 +4638,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4668,7 +4671,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4685,11 +4688,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>26</v>
@@ -4701,7 +4704,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4734,7 +4737,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4751,11 +4754,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>26</v>
@@ -4767,7 +4770,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4784,11 +4787,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>26</v>
@@ -4800,14 +4803,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4817,11 +4820,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>26</v>
@@ -4833,7 +4836,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4850,7 +4853,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4866,7 +4869,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4899,14 +4902,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4932,7 +4935,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4965,7 +4968,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -4998,14 +5001,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5031,14 +5034,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5052,7 +5055,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>63</v>
@@ -5064,7 +5067,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5093,13 +5096,13 @@
     </row>
     <row r="115" ht="24.75" customHeight="1">
       <c r="P115" s="13">
-        <v>6521.2150000000001</v>
+        <v>6495.2150000000001</v>
       </c>
       <c r="Q115" s="13"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
       <c t="s" r="A116" s="14">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -5107,13 +5110,13 @@
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
       <c t="s" r="G116" s="15">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="16"/>
       <c t="s" r="K116" s="17">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L116" s="17"/>
       <c r="M116" s="17"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -266,6 +266,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -707,9 +716,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -809,7 +815,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>39:0</t>
+    <t>41:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -884,6 +890,15 @@
     <t>32:0</t>
   </si>
   <si>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>مسك الرمان</t>
   </si>
   <si>
@@ -902,7 +917,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 8:41 PM</t>
+    <t>Tuesday, 2 September, 2025 8:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2203,7 +2218,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2236,7 +2251,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2246,14 +2261,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2262,14 +2277,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2279,14 +2294,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2295,14 +2310,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2312,14 +2327,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2335,7 +2350,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2352,7 +2367,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2368,7 +2383,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2378,14 +2393,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2394,14 +2409,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2411,14 +2426,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2434,7 +2449,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2444,14 +2459,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2467,7 +2482,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2477,14 +2492,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2500,7 +2515,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2510,11 +2525,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2526,14 +2541,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2550,7 +2565,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2566,7 +2581,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2580,10 +2595,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2592,14 +2607,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2609,14 +2624,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2632,7 +2647,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2649,7 +2664,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2698,7 +2713,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2708,14 +2723,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2724,14 +2739,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2741,14 +2756,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2764,7 +2779,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2797,7 +2812,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2830,7 +2845,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2847,7 +2862,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2863,7 +2878,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2880,7 +2895,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2889,14 +2904,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2906,14 +2921,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2929,21 +2944,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -2955,28 +2970,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2988,24 +3003,24 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3028,7 +3043,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3045,7 +3060,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3061,7 +3076,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3071,14 +3086,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3087,14 +3102,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3104,11 +3119,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>26</v>
@@ -3120,14 +3135,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3137,11 +3152,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -3153,14 +3168,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3170,14 +3185,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3193,7 +3208,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3210,7 +3225,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3226,13 +3241,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3259,24 +3274,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3285,14 +3300,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3302,11 +3317,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3318,14 +3333,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3335,14 +3350,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3358,7 +3373,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3368,11 +3383,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3384,14 +3399,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3401,14 +3416,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3424,7 +3439,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3457,7 +3472,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3471,10 +3486,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3483,14 +3498,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3500,14 +3515,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3523,7 +3538,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3537,10 +3552,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3549,14 +3564,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3566,14 +3581,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3606,7 +3621,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3639,7 +3654,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3655,7 +3670,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3665,14 +3680,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3681,14 +3696,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3698,11 +3713,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>31</v>
@@ -3714,14 +3729,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3735,10 +3750,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3747,7 +3762,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3764,11 +3779,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>26</v>
@@ -3780,14 +3795,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3797,11 +3812,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>26</v>
@@ -3813,14 +3828,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3830,11 +3845,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -3846,7 +3861,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3863,14 +3878,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3879,14 +3894,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3896,14 +3911,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3919,7 +3934,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3929,11 +3944,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3945,14 +3960,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3962,11 +3977,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3985,7 +4000,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3995,14 +4010,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4011,14 +4026,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4028,11 +4043,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>26</v>
@@ -4044,14 +4059,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4061,14 +4076,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4077,14 +4092,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4094,14 +4109,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4110,14 +4125,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>117</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4127,14 +4142,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>242</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4143,14 +4158,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4160,14 +4175,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>63</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4176,14 +4191,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4193,14 +4208,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4216,13 +4231,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4230,10 +4245,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4242,28 +4257,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>26</v>
@@ -4275,31 +4290,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>111</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4315,24 +4330,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4341,28 +4356,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>26</v>
@@ -4381,21 +4396,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>95</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>26</v>
@@ -4407,28 +4422,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>26</v>
@@ -4440,31 +4455,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>148</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4473,7 +4488,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4486,18 +4501,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>266</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4519,18 +4534,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4539,31 +4554,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>26</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4572,28 +4587,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>26</v>
@@ -4605,28 +4620,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>26</v>
@@ -4638,28 +4653,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>26</v>
@@ -4671,28 +4686,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>26</v>
@@ -4704,28 +4719,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>26</v>
@@ -4737,28 +4752,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>186</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>26</v>
@@ -4770,28 +4785,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>26</v>
@@ -4803,28 +4818,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>26</v>
@@ -4836,31 +4851,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>54</v>
+        <v>244</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4869,31 +4884,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4902,31 +4917,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4942,24 +4957,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>168</v>
+        <v>292</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4968,28 +4983,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>26</v>
@@ -5001,28 +5016,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>294</v>
+        <v>171</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>26</v>
@@ -5034,31 +5049,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>290</v>
+        <v>171</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5067,66 +5082,132 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6495.2150000000001</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>297</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>298</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
-        <v>299</v>
-      </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>300</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>292</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>156</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>186</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>301</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>54</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>156</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>118</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>6587.4399999999996</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>302</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>303</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>304</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5675,10 +5756,20 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -917,7 +917,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 8:51 PM</t>
+    <t>Tuesday, 2 September, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -380,6 +380,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -389,9 +398,6 @@
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
     <t>17.0000</t>
   </si>
   <si>
@@ -536,6 +542,15 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>LOTERANOL COMP EYE DROP</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>MAALOX PLUS (LEMON FLAVOURED) 355ML SUSP.</t>
   </si>
   <si>
@@ -575,6 +590,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
   </si>
   <si>
@@ -587,9 +611,6 @@
     <t>56.00</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -635,9 +656,6 @@
     <t>102.00</t>
   </si>
   <si>
-    <t>51.0000</t>
-  </si>
-  <si>
     <t>POLYFRESH ADVANCED EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -668,9 +686,6 @@
     <t>QUADRIDERM CREAM 15 GM</t>
   </si>
   <si>
-    <t>28.00</t>
-  </si>
-  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -728,9 +743,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
@@ -917,7 +929,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 8:57 PM</t>
+    <t>Tuesday, 2 September, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2614,7 +2626,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2628,10 +2640,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2640,14 +2652,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2680,7 +2692,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2690,14 +2702,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2706,7 +2718,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2723,11 +2735,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2756,14 +2768,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2779,7 +2791,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2789,14 +2801,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2822,11 +2834,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2855,11 +2867,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -2871,14 +2883,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2888,14 +2900,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2904,14 +2916,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2921,14 +2933,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2937,14 +2949,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2954,14 +2966,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2970,28 +2982,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -3003,24 +3015,24 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3043,21 +3055,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
@@ -3069,14 +3081,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3086,14 +3098,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3102,14 +3114,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3119,14 +3131,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3135,14 +3147,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3152,11 +3164,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -3185,11 +3197,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>26</v>
@@ -3208,7 +3220,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3234,14 +3246,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3251,14 +3263,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3267,7 +3279,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3280,15 +3292,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -3300,14 +3312,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3317,14 +3329,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3340,13 +3352,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3354,10 +3366,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3366,14 +3378,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3383,14 +3395,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3406,7 +3418,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3416,14 +3428,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3439,7 +3451,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3456,7 +3468,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3472,7 +3484,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3489,7 +3501,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3505,7 +3517,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3515,14 +3527,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3538,7 +3550,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3552,10 +3564,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3564,14 +3576,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3581,11 +3593,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3604,7 +3616,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3618,10 +3630,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3630,14 +3642,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3647,14 +3659,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3663,14 +3675,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3680,14 +3692,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3696,14 +3708,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3713,14 +3725,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3729,14 +3741,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3746,14 +3758,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3762,14 +3774,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3779,11 +3791,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>26</v>
@@ -3795,14 +3807,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3812,14 +3824,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3828,14 +3840,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3845,14 +3857,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3861,7 +3873,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3882,7 +3894,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>26</v>
@@ -3894,7 +3906,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3911,14 +3923,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3934,7 +3946,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,14 +3956,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3960,14 +3972,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3977,14 +3989,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3993,14 +4005,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4010,14 +4022,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4026,14 +4038,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4043,14 +4055,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4066,7 +4078,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4076,14 +4088,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4099,7 +4111,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4132,7 +4144,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4142,14 +4154,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4158,14 +4170,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4175,14 +4187,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>244</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4191,14 +4203,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4208,14 +4220,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4224,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4241,14 +4253,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4257,31 +4269,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4290,31 +4302,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4323,31 +4335,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4356,28 +4368,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>26</v>
@@ -4389,28 +4401,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>127</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>26</v>
@@ -4422,31 +4434,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4462,21 +4474,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>26</v>
@@ -4495,13 +4507,13 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4509,10 +4521,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>151</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4521,31 +4533,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>243</v>
+        <v>98</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>268</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4554,31 +4566,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>271</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4587,31 +4599,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>26</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4620,31 +4632,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>26</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4653,31 +4665,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4686,28 +4698,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>26</v>
@@ -4719,28 +4731,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>26</v>
@@ -4752,28 +4764,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>186</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>187</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>26</v>
@@ -4785,28 +4797,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>26</v>
@@ -4818,28 +4830,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>26</v>
@@ -4851,28 +4863,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>244</v>
+        <v>54</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>26</v>
@@ -4884,31 +4896,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>154</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4917,28 +4929,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>26</v>
@@ -4950,31 +4962,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4990,24 +5002,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>295</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5016,28 +5028,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>26</v>
@@ -5049,31 +5061,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>171</v>
+        <v>296</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5082,28 +5094,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>299</v>
+        <v>46</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>199</v>
+        <v>298</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>26</v>
@@ -5122,24 +5134,24 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>292</v>
+        <v>173</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5155,59 +5167,158 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>302</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>303</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>158</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>206</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>304</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>296</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>158</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>191</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>305</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>54</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>158</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>118</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>119</v>
       </c>
-      <c t="s" r="Q116" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>6587.4399999999996</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>302</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>303</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>304</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c t="s" r="Q119" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6700.4399999999996</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>306</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>307</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>308</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5766,10 +5877,25 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -248,13 +248,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>16:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
   </si>
   <si>
     <t>CORASORE 150MG 20 TAB</t>
@@ -266,6 +266,18 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -374,12 +386,6 @@
     <t>FAMOTAK 40MG 20 TABLETS</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -530,9 +536,6 @@
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -560,6 +563,12 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>MENTO DROPS</t>
   </si>
   <si>
@@ -692,6 +701,9 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
     <t>TRYPSALIN 20 TABS</t>
   </si>
   <si>
@@ -929,7 +941,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 8:58 PM</t>
+    <t>Tuesday, 2 September, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2181,7 +2193,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2230,7 +2242,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2240,11 +2252,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2256,14 +2268,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2273,11 +2285,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2289,14 +2301,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2306,14 +2318,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2329,7 +2341,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2339,14 +2351,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2355,14 +2367,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2372,14 +2384,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2388,14 +2400,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2405,14 +2417,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2421,14 +2433,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2438,14 +2450,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2461,7 +2473,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2471,14 +2483,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2487,14 +2499,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2504,14 +2516,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2520,14 +2532,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2537,14 +2549,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2553,14 +2565,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2593,7 +2605,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2603,14 +2615,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2619,14 +2631,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2636,14 +2648,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2652,14 +2664,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2669,14 +2681,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2692,7 +2704,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2702,14 +2714,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2725,7 +2737,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2735,14 +2747,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2751,7 +2763,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2768,11 +2780,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
@@ -2784,14 +2796,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2801,14 +2813,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2824,7 +2836,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2834,14 +2846,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2850,14 +2862,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2867,11 +2879,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -2883,14 +2895,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2900,11 +2912,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>26</v>
@@ -2916,14 +2928,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2933,14 +2945,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2949,14 +2961,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2966,14 +2978,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>153</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2982,14 +2994,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2999,14 +3011,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3015,28 +3027,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -3048,24 +3060,24 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3088,21 +3100,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -3114,14 +3126,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3131,14 +3143,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3147,14 +3159,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3164,14 +3176,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3180,14 +3192,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3197,11 +3209,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>26</v>
@@ -3230,11 +3242,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>26</v>
@@ -3253,7 +3265,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3263,14 +3275,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3279,31 +3291,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3312,28 +3324,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>26</v>
@@ -3345,28 +3357,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3378,14 +3390,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3395,14 +3407,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3411,31 +3423,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3444,14 +3456,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3461,14 +3473,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3477,7 +3489,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3494,14 +3506,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3510,14 +3522,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3527,11 +3539,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3543,7 +3555,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3560,14 +3572,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3576,14 +3588,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3593,14 +3605,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3609,14 +3621,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3626,14 +3638,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3642,14 +3654,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,14 +3671,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3675,14 +3687,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3692,14 +3704,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3708,14 +3720,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3725,11 +3737,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>26</v>
@@ -3741,14 +3753,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,11 +3770,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3774,7 +3786,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3791,11 +3803,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>26</v>
@@ -3807,14 +3819,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3824,14 +3836,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3840,14 +3852,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3857,14 +3869,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3873,14 +3885,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3890,14 +3902,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3906,14 +3918,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3923,14 +3935,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3939,14 +3951,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3956,11 +3968,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>26</v>
@@ -3972,7 +3984,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3989,11 +4001,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>26</v>
@@ -4012,7 +4024,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,14 +4034,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4038,14 +4050,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,14 +4067,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4071,14 +4083,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,14 +4100,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4104,14 +4116,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,14 +4133,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4137,14 +4149,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4154,14 +4166,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4170,14 +4182,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4187,14 +4199,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4203,14 +4215,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4220,11 +4232,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4236,14 +4248,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,14 +4265,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4269,14 +4281,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>246</v>
+        <v>46</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,14 +4298,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>248</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4302,14 +4314,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,14 +4331,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4335,14 +4347,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4352,14 +4364,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4368,31 +4380,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>26</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4401,31 +4413,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4434,31 +4446,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4467,28 +4479,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>26</v>
@@ -4500,28 +4512,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>129</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>26</v>
@@ -4533,31 +4545,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4573,21 +4585,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>26</v>
@@ -4606,13 +4618,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4620,10 +4632,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>153</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4632,31 +4644,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>272</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4665,31 +4677,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>275</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4698,31 +4710,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4731,31 +4743,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>26</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4764,31 +4776,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>26</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4797,28 +4809,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>192</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>26</v>
@@ -4830,28 +4842,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>26</v>
@@ -4863,28 +4875,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>26</v>
@@ -4896,28 +4908,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>26</v>
@@ -4929,28 +4941,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>26</v>
@@ -4962,28 +4974,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>248</v>
+        <v>54</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>26</v>
@@ -4995,31 +5007,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>156</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5028,28 +5040,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>26</v>
@@ -5061,31 +5073,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5101,24 +5113,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>299</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5127,28 +5139,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>26</v>
@@ -5160,31 +5172,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>173</v>
+        <v>300</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5193,28 +5205,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>303</v>
+        <v>46</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>26</v>
@@ -5233,24 +5245,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>296</v>
+        <v>86</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5266,59 +5278,158 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6700.4399999999996</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>306</v>
       </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
         <v>307</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>160</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>209</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>308</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>300</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>160</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>194</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>309</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>54</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>160</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>122</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6887.4399999999996</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>310</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>311</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>312</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5892,10 +6003,25 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -107,6 +107,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>AUGMENTIN 62.5MG/ML INFANT DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -173,9 +185,6 @@
     <t>CANDALKAN 8MG 14 TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -789,12 +798,6 @@
   </si>
   <si>
     <t xml:space="preserve">الو ايفا200مل </t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
   </si>
   <si>
     <t>برمنجنات بوتاسيوم</t>
@@ -1731,7 +1734,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1747,7 +1750,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1757,11 +1760,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1773,7 +1776,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1790,14 +1793,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1806,14 +1809,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1823,14 +1826,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1839,14 +1842,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1863,7 +1866,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1945,7 +1948,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1955,14 +1958,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1971,14 +1974,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1988,14 +1991,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2004,14 +2007,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2021,14 +2024,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2044,7 +2047,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2058,7 +2061,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -2070,7 +2073,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2087,14 +2090,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2110,7 +2113,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2127,7 +2130,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2143,7 +2146,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2176,7 +2179,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2186,14 +2189,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2202,14 +2205,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2226,7 +2229,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2242,7 +2245,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2252,14 +2255,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2268,14 +2271,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2308,7 +2311,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2341,7 +2344,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2351,14 +2354,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2367,14 +2370,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2384,14 +2387,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2400,14 +2403,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2417,14 +2420,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2440,7 +2443,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2457,7 +2460,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2473,7 +2476,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2483,14 +2486,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2499,14 +2502,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2516,14 +2519,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2539,7 +2542,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2549,14 +2552,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2572,7 +2575,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2582,14 +2585,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2605,7 +2608,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2615,11 +2618,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2631,14 +2634,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2648,14 +2651,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2664,14 +2667,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2681,14 +2684,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2704,7 +2707,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2718,10 +2721,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2730,14 +2733,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2747,14 +2750,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2763,14 +2766,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2780,14 +2783,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2803,7 +2806,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2836,7 +2839,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2846,14 +2849,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2862,14 +2865,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2879,14 +2882,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2902,7 +2905,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2935,7 +2938,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2968,7 +2971,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2985,7 +2988,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3001,7 +3004,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3018,7 +3021,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>155</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3027,14 +3030,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3044,14 +3047,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>158</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3073,15 +3076,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
@@ -3093,28 +3096,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -3126,24 +3129,24 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3166,7 +3169,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3183,7 +3186,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3199,7 +3202,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3209,14 +3212,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3225,14 +3228,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3242,11 +3245,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>26</v>
@@ -3258,14 +3261,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3275,11 +3278,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>26</v>
@@ -3291,14 +3294,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3308,14 +3311,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3331,13 +3334,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3348,7 +3351,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3364,13 +3367,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3397,7 +3400,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3407,11 +3410,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3423,24 +3426,24 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3463,24 +3466,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3489,14 +3492,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3506,11 +3509,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3522,14 +3525,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3539,14 +3542,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3562,7 +3565,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3595,7 +3598,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3605,11 +3608,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3621,14 +3624,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3638,14 +3641,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3654,14 +3657,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3671,11 +3674,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3694,7 +3697,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3708,10 +3711,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3720,14 +3723,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3737,14 +3740,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3760,7 +3763,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3774,10 +3777,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3786,14 +3789,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3803,14 +3806,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3840,10 +3843,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3852,7 +3855,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3869,14 +3872,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3892,7 +3895,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3902,14 +3905,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3918,14 +3921,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3935,11 +3938,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>31</v>
@@ -3951,14 +3954,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3968,14 +3971,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3984,14 +3987,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4001,11 +4004,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>26</v>
@@ -4017,14 +4020,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4034,11 +4037,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>26</v>
@@ -4050,14 +4053,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4067,11 +4070,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>26</v>
@@ -4083,14 +4086,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4100,11 +4103,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>26</v>
@@ -4116,14 +4119,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4133,14 +4136,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4149,14 +4152,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4166,14 +4169,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4189,7 +4192,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4199,11 +4202,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4215,14 +4218,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4232,11 +4235,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4255,7 +4258,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4265,14 +4268,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4281,14 +4284,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4298,14 +4301,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4314,14 +4317,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4331,14 +4334,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>245</v>
+        <v>132</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4354,7 +4357,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4364,14 +4367,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4380,14 +4383,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4397,14 +4400,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>252</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4413,14 +4416,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4430,14 +4433,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>63</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4446,14 +4449,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4467,10 +4470,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4479,31 +4482,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4519,21 +4522,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>26</v>
@@ -4545,31 +4548,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>266</v>
+        <v>118</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4578,31 +4581,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4618,21 +4621,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>26</v>
@@ -4644,28 +4647,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>102</v>
+        <v>270</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>26</v>
@@ -4684,21 +4687,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>26</v>
@@ -4717,24 +4720,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4743,31 +4746,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>276</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4776,31 +4779,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4809,31 +4812,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>26</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4842,28 +4845,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>26</v>
@@ -4875,28 +4878,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>26</v>
@@ -4908,28 +4911,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>26</v>
@@ -4948,21 +4951,21 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>26</v>
@@ -4987,15 +4990,15 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>26</v>
@@ -5014,21 +5017,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>293</v>
+        <v>197</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>294</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>26</v>
@@ -5040,28 +5043,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>26</v>
@@ -5080,21 +5083,21 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>252</v>
+        <v>66</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>26</v>
@@ -5113,24 +5116,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>158</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5146,24 +5149,24 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5179,24 +5182,24 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>56</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5205,31 +5208,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>46</v>
+        <v>301</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>303</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5238,28 +5241,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>194</v>
+        <v>303</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>195</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>26</v>
@@ -5278,21 +5281,21 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>26</v>
@@ -5311,21 +5314,21 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>307</v>
+        <v>89</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>26</v>
@@ -5337,31 +5340,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5377,59 +5380,92 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>54</v>
+        <v>301</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6887.4399999999996</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>310</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>33</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>163</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>125</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6947.4399999999996</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
         <v>311</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
         <v>312</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>313</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6018,10 +6054,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -944,7 +944,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 9:02 PM</t>
+    <t>Tuesday, 2 September, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -47,207 +47,219 @@
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>95.7600</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>-14.3000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 62.5MG/ML INFANT DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>AVOSOYA 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CANDALKAN 8MG 14 TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>CEFAXONE 500MG I.M. VIAL</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>83.8800</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>ALPHINTERN 30 F.C.TABS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>-14.3000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 62.5MG/ML INFANT DROPS 20 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>AVOSOYA 20 CAPSULES</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CANDALKAN 8MG 14 TAB</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>CEFAXONE 500MG I.M. VIAL</t>
-  </si>
-  <si>
-    <t>147.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -539,9 +551,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -842,7 +851,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>41:0</t>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>42:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -944,7 +956,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 9:03 PM</t>
+    <t>Tuesday, 2 September, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1635,7 +1647,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1644,14 +1656,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1661,14 +1673,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1677,14 +1689,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1694,14 +1706,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1710,14 +1722,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1727,14 +1739,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1743,14 +1755,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1760,14 +1772,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1776,14 +1788,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1793,14 +1805,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1809,14 +1821,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1826,14 +1838,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1842,14 +1854,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1866,7 +1878,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1899,7 +1911,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1932,7 +1944,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1948,7 +1960,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1965,7 +1977,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2047,7 +2059,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2064,7 +2076,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2080,7 +2092,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2094,10 +2106,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2106,14 +2118,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2123,14 +2135,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2146,7 +2158,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2163,7 +2175,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2179,7 +2191,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2196,7 +2208,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2229,7 +2241,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2245,7 +2257,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2255,14 +2267,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2271,14 +2283,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2295,7 +2307,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2311,7 +2323,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2321,14 +2333,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2337,14 +2349,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2354,14 +2366,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2370,14 +2382,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2387,14 +2399,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2410,7 +2422,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2420,14 +2432,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2436,14 +2448,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2453,14 +2465,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2469,14 +2481,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2486,14 +2498,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2502,14 +2514,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2519,14 +2531,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>113</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2542,7 +2554,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2552,14 +2564,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2568,14 +2580,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2585,14 +2597,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2601,14 +2613,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2618,14 +2630,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2634,14 +2646,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2658,7 +2670,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2674,7 +2686,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2684,14 +2696,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2700,14 +2712,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2717,14 +2729,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2733,14 +2745,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2750,14 +2762,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2766,14 +2778,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2783,14 +2795,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2799,14 +2811,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2816,14 +2828,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2832,7 +2844,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2849,14 +2861,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2865,14 +2877,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2882,14 +2894,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2898,14 +2910,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2915,14 +2927,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2931,14 +2943,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2948,14 +2960,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2964,14 +2976,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2981,14 +2993,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2997,14 +3009,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3014,14 +3026,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3030,14 +3042,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3047,14 +3059,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>158</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3070,7 +3082,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3087,7 +3099,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3096,20 +3108,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3120,7 +3132,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3136,24 +3148,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3162,31 +3174,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3195,14 +3207,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3212,14 +3224,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3228,14 +3240,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3245,14 +3257,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3278,14 +3290,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3294,14 +3306,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3311,14 +3323,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3344,14 +3356,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3367,13 +3379,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3384,7 +3396,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3400,13 +3412,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3417,7 +3429,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3433,7 +3445,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3443,14 +3455,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3459,31 +3471,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3499,24 +3511,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3525,14 +3537,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3542,14 +3554,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3575,14 +3587,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3598,7 +3610,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3615,7 +3627,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3631,7 +3643,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3641,14 +3653,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3657,14 +3669,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3674,14 +3686,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3690,14 +3702,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3707,14 +3719,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3730,7 +3742,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3744,10 +3756,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3756,14 +3768,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3773,14 +3785,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3796,7 +3808,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3810,10 +3822,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3822,14 +3834,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3839,14 +3851,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3862,7 +3874,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3876,10 +3888,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3888,14 +3900,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3905,14 +3917,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3928,7 +3940,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3938,14 +3950,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3954,14 +3966,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3971,14 +3983,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3987,14 +3999,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4004,14 +4016,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4020,14 +4032,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4037,14 +4049,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4053,14 +4065,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4070,14 +4082,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4086,14 +4098,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4103,14 +4115,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4119,14 +4131,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4136,14 +4148,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4152,14 +4164,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4169,14 +4181,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4185,14 +4197,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4202,14 +4214,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4225,7 +4237,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4235,14 +4247,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4251,14 +4263,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4268,14 +4280,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4291,7 +4303,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4301,14 +4313,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4317,14 +4329,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4334,14 +4346,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4350,14 +4362,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4367,14 +4379,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>136</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4390,7 +4402,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4400,11 +4412,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4416,14 +4428,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4433,14 +4445,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>255</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4449,14 +4461,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4466,14 +4478,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>66</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4482,14 +4494,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4503,10 +4515,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4515,31 +4527,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>34</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4548,31 +4560,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4588,24 +4600,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4614,31 +4626,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>89</v>
+        <v>270</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4647,31 +4659,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4680,31 +4692,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>105</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4713,31 +4725,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4746,31 +4758,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>274</v>
+        <v>43</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>158</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4786,24 +4798,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>277</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4812,31 +4824,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4845,31 +4857,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>283</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>26</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4878,31 +4890,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4911,31 +4923,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4944,31 +4956,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4977,31 +4989,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5010,31 +5022,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5043,31 +5055,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5076,31 +5088,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5109,31 +5121,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>255</v>
+        <v>66</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5142,31 +5154,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>161</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5175,31 +5187,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5208,31 +5220,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>301</v>
+        <v>50</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5241,31 +5253,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>50</v>
+        <v>305</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>303</v>
+        <v>213</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>304</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5274,31 +5286,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5307,31 +5319,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5340,31 +5352,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>308</v>
+        <v>93</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5373,31 +5385,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5406,66 +5418,99 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6947.4399999999996</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>311</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>312</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>313</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>314</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>32</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>167</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>129</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>7053.3199999999997</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>315</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>316</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>317</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6059,10 +6104,15 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -65,13 +65,16 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>2:3</t>
   </si>
   <si>
     <t>87.00</t>
   </si>
   <si>
-    <t>28.7100</t>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
@@ -257,9 +260,6 @@
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -362,9 +362,6 @@
     <t>107.6400</t>
   </si>
   <si>
-    <t>2:3</t>
-  </si>
-  <si>
     <t>DICETEL 100MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -638,6 +635,18 @@
     <t>56.00</t>
   </si>
   <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -851,10 +860,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>42:0</t>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>50:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -956,7 +965,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 9:04 PM</t>
+    <t>Tuesday, 2 September, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1647,7 +1656,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1656,14 +1665,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1673,14 +1682,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1689,14 +1698,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1706,14 +1715,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1722,14 +1731,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1739,14 +1748,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1755,14 +1764,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1772,11 +1781,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1788,14 +1797,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1805,11 +1814,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1821,14 +1830,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1838,14 +1847,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1854,14 +1863,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1871,11 +1880,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1887,14 +1896,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1904,14 +1913,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1920,14 +1929,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1937,14 +1946,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1953,14 +1962,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1970,14 +1979,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1986,14 +1995,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2003,14 +2012,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2019,14 +2028,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2036,14 +2045,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2052,14 +2061,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2069,11 +2078,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -2085,7 +2094,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2102,11 +2111,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2118,14 +2127,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2135,11 +2144,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2151,14 +2160,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2168,14 +2177,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2201,11 +2210,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2217,14 +2226,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2274,7 +2283,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2307,7 +2316,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2356,7 +2365,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2389,7 +2398,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2465,7 +2474,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2488,7 +2497,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2521,7 +2530,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2538,7 +2547,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2571,7 +2580,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2580,14 +2589,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2597,14 +2606,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2630,11 +2639,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2646,14 +2655,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2663,14 +2672,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2679,14 +2688,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2696,14 +2705,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2712,7 +2721,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2745,14 +2754,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2762,14 +2771,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2778,14 +2787,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2795,14 +2804,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2828,11 +2837,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2844,14 +2853,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2861,14 +2870,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2877,14 +2886,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2894,14 +2903,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2927,11 +2936,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2976,7 +2985,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2993,14 +3002,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3009,14 +3018,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3026,14 +3035,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3042,14 +3051,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3059,11 +3068,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3075,14 +3084,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3092,14 +3101,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>161</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>162</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3108,14 +3117,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3125,14 +3134,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3141,31 +3150,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3174,20 +3183,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3195,10 +3204,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3207,14 +3216,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3240,14 +3249,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3257,11 +3266,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3273,14 +3282,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3297,7 +3306,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3306,7 +3315,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3323,14 +3332,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3339,7 +3348,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3356,14 +3365,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3372,7 +3381,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3389,11 +3398,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3405,31 +3414,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3438,14 +3447,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3455,14 +3464,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3471,14 +3480,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3488,14 +3497,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3504,31 +3513,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3537,7 +3546,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3558,7 +3567,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3570,14 +3579,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3587,11 +3596,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3620,14 +3629,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3669,14 +3678,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3690,10 +3699,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3702,14 +3711,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3719,11 +3728,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3759,7 +3768,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3775,7 +3784,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3789,10 +3798,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3801,14 +3810,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3818,14 +3827,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3841,7 +3850,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3855,10 +3864,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3867,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3884,14 +3893,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3907,7 +3916,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3921,10 +3930,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3933,14 +3942,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3950,14 +3959,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3973,7 +3982,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3983,14 +3992,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3999,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4016,14 +4025,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4032,14 +4041,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4049,14 +4058,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4065,14 +4074,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4082,14 +4091,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4098,14 +4107,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4115,14 +4124,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4131,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4148,14 +4157,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4164,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4181,14 +4190,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4197,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4214,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4230,14 +4239,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4247,14 +4256,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4270,7 +4279,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4280,14 +4289,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4296,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4313,14 +4322,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4336,7 +4345,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,14 +4355,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4362,14 +4371,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4379,14 +4388,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4395,14 +4404,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,14 +4421,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4435,7 +4444,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4445,14 +4454,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4461,14 +4470,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,14 +4487,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>258</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4494,14 +4503,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4511,14 +4520,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>66</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4527,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4548,10 +4557,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4560,31 +4569,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4593,31 +4602,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>34</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4633,24 +4642,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>270</v>
+        <v>121</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4659,31 +4668,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4692,31 +4701,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4725,31 +4734,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4758,31 +4767,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4791,31 +4800,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>162</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4831,24 +4840,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>281</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4864,21 +4873,21 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>284</v>
@@ -4897,13 +4906,13 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4911,10 +4920,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q107" s="12">
         <v>287</v>
-      </c>
-      <c t="s" r="Q107" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4930,13 +4939,13 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -4947,7 +4956,7 @@
         <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4963,13 +4972,13 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -4980,7 +4989,7 @@
         <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5002,18 +5011,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5022,31 +5031,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>267</v>
+        <v>199</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5055,31 +5064,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5088,31 +5097,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5128,24 +5137,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5154,31 +5163,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>258</v>
+        <v>67</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5187,31 +5196,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>165</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5220,31 +5229,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>215</v>
+        <v>289</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5253,31 +5262,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>305</v>
+        <v>51</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5286,31 +5295,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>50</v>
+        <v>308</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>307</v>
+        <v>216</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>308</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5326,24 +5335,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5352,7 +5361,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5365,18 +5374,18 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5385,31 +5394,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>312</v>
+        <v>93</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5418,31 +5427,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5451,66 +5460,99 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>7053.3199999999997</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>315</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>316</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>317</v>
       </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>33</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>166</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>128</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>7226.0299999999997</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>318</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>319</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>320</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6109,10 +6151,15 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -290,267 +290,273 @@
     <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
   </si>
   <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>107.6400</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>FAMOTAK 40MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GYNOZOL 200MG 6 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>339.00</t>
+  </si>
+  <si>
+    <t>339.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>402.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>KIDZOS LOTION</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADAME  VAG.DOUSH</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>DEXAFLOX EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>107.6400</t>
-  </si>
-  <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>FAMOTAK 40MG 20 TABLETS</t>
-  </si>
-  <si>
-    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GYNOZOL 200MG 6 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>339.00</t>
-  </si>
-  <si>
-    <t>339.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>402.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>KIDZOS LOTION</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADAME  VAG.DOUSH</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -965,7 +971,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 9:07 PM</t>
+    <t>Tuesday, 2 September, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2349,7 +2355,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2742,7 +2748,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2754,7 +2760,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2771,11 +2777,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2787,7 +2793,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2804,7 +2810,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2820,7 +2826,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2837,11 +2843,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2853,7 +2859,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2870,11 +2876,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2886,7 +2892,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2903,11 +2909,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -2919,7 +2925,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2940,7 +2946,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2952,7 +2958,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2969,11 +2975,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
@@ -2985,7 +2991,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3002,11 +3008,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -3018,7 +3024,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3035,11 +3041,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -3051,7 +3057,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3068,11 +3074,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3084,7 +3090,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3101,14 +3107,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3117,7 +3123,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3134,11 +3140,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -3150,7 +3156,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3163,15 +3169,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>26</v>
@@ -3183,7 +3189,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3196,7 +3202,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3204,7 +3210,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -3216,7 +3222,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3233,11 +3239,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>26</v>
@@ -3249,7 +3255,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3266,11 +3272,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3282,7 +3288,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3315,7 +3321,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3348,14 +3354,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3381,7 +3387,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3398,11 +3404,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3414,7 +3420,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3427,15 +3433,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3447,7 +3453,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3464,11 +3470,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3480,7 +3486,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3501,7 +3507,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3513,7 +3519,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3526,15 +3532,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>26</v>
@@ -3546,7 +3552,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3567,7 +3573,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3579,7 +3585,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3596,11 +3602,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3612,7 +3618,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3629,11 +3635,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3645,7 +3651,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3662,11 +3668,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>26</v>
@@ -3678,7 +3684,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3699,7 +3705,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>26</v>
@@ -3711,7 +3717,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3728,11 +3734,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3744,14 +3750,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3761,11 +3767,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>26</v>
@@ -3777,7 +3783,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3794,11 +3800,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3810,7 +3816,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3827,7 +3833,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3843,7 +3849,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3860,11 +3866,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>26</v>
@@ -3876,7 +3882,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3893,11 +3899,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3909,7 +3915,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3926,11 +3932,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>26</v>
@@ -3942,7 +3948,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3959,11 +3965,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3975,7 +3981,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3992,11 +3998,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>26</v>
@@ -4008,7 +4014,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4029,7 +4035,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>31</v>
@@ -4041,14 +4047,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4058,11 +4064,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>31</v>
@@ -4074,7 +4080,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4091,11 +4097,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>26</v>
@@ -4107,7 +4113,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4124,11 +4130,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>26</v>
@@ -4140,7 +4146,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4173,7 +4179,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4190,11 +4196,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>26</v>
@@ -4206,7 +4212,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4223,11 +4229,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>26</v>
@@ -4239,7 +4245,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4256,11 +4262,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>64</v>
@@ -4272,7 +4278,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4289,11 +4295,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4305,7 +4311,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4326,7 +4332,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>26</v>
@@ -4338,7 +4344,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4355,11 +4361,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4371,7 +4377,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4404,7 +4410,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4421,7 +4427,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4437,7 +4443,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4454,11 +4460,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4470,7 +4476,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4487,11 +4493,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4503,14 +4509,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4520,14 +4526,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4536,14 +4542,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,11 +4559,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>67</v>
@@ -4569,7 +4575,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4586,11 +4592,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4602,7 +4608,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4615,7 +4621,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4635,7 +4641,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4648,15 +4654,15 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>26</v>
@@ -4668,24 +4674,24 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4701,28 +4707,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>26</v>
@@ -4734,7 +4740,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4747,15 +4753,15 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>26</v>
@@ -4767,7 +4773,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4780,7 +4786,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4788,7 +4794,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>26</v>
@@ -4800,7 +4806,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4813,7 +4819,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4833,7 +4839,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4846,18 +4852,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4866,7 +4872,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4879,18 +4885,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4899,7 +4905,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4912,18 +4918,18 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4932,28 +4938,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>26</v>
@@ -4965,7 +4971,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4978,15 +4984,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>26</v>
@@ -4998,28 +5004,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>26</v>
@@ -5031,28 +5037,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>26</v>
@@ -5064,7 +5070,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5077,15 +5083,15 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>26</v>
@@ -5097,7 +5103,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5110,15 +5116,15 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>26</v>
@@ -5130,7 +5136,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5143,15 +5149,15 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>26</v>
@@ -5163,7 +5169,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5176,15 +5182,15 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>26</v>
@@ -5196,28 +5202,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>26</v>
@@ -5229,7 +5235,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5242,15 +5248,15 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>55</v>
@@ -5262,7 +5268,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5275,15 +5281,15 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>26</v>
@@ -5295,24 +5301,24 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
@@ -5328,7 +5334,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5341,15 +5347,15 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>26</v>
@@ -5361,28 +5367,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>26</v>
@@ -5394,20 +5400,20 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
@@ -5427,28 +5433,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>26</v>
@@ -5460,24 +5466,24 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
@@ -5493,7 +5499,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5506,7 +5512,7 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
@@ -5522,13 +5528,13 @@
     </row>
     <row r="126" ht="25.5" customHeight="1">
       <c r="P126" s="13">
-        <v>7226.0299999999997</v>
+        <v>7247.0299999999997</v>
       </c>
       <c r="Q126" s="13"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
       <c t="s" r="A127" s="14">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -5536,13 +5542,13 @@
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
       <c t="s" r="G127" s="15">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
       <c r="J127" s="16"/>
       <c t="s" r="K127" s="17">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L127" s="17"/>
       <c r="M127" s="17"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -971,7 +971,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 9:14 PM</t>
+    <t>Tuesday, 2 September, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -224,6 +224,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -320,18 +329,18 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>47.5200</t>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
-  </si>
-  <si>
     <t>11.0000</t>
   </si>
   <si>
@@ -794,144 +803,150 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8333:0</t>
+    <t>8331:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>XILONE FORTE 15MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الو ايفا200مل </t>
+  </si>
+  <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>66:0</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>ديتول صغير</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زيت شعر املا 180 مل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سباركل شامبو وبلسم </t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>52:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>سلاكه اسنان خشب</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>شاش فازلين 10*10 سم</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>فرشاه فوكس</t>
+  </si>
+  <si>
+    <t>فرشه شعر اطفال الجو</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>XILONE FORTE 15MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الو ايفا200مل </t>
-  </si>
-  <si>
-    <t>برمنجنات بوتاسيوم</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>66:0</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>ديتول صغير</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زيت شعر املا 180 مل </t>
-  </si>
-  <si>
-    <t xml:space="preserve">سباركل شامبو وبلسم </t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>50:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>سلاكه اسنان خشب</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 4</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>شاش فازلين 10*10 سم</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فازلين بيور صغير </t>
-  </si>
-  <si>
-    <t>فرشاه فوكس</t>
-  </si>
-  <si>
-    <t>فرشه شعر اطفال الجو</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>قطن ازن صغير</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -971,7 +986,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 9:27 PM</t>
+    <t>Tuesday, 2 September, 2025 9:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2107,7 +2122,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2124,7 +2139,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2140,7 +2155,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2154,7 +2169,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2166,7 +2181,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2183,14 +2198,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2206,7 +2221,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2223,7 +2238,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2239,7 +2254,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2272,7 +2287,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2282,14 +2297,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2298,14 +2313,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2322,7 +2337,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2338,7 +2353,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2348,11 +2363,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>26</v>
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2388,7 +2403,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2404,7 +2419,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2437,7 +2452,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2447,14 +2462,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2463,14 +2478,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2480,14 +2495,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2503,7 +2518,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2513,14 +2528,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2536,7 +2551,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2553,7 +2568,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2569,7 +2584,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2602,7 +2617,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2612,14 +2627,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2635,7 +2650,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2668,7 +2683,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2678,14 +2693,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2701,7 +2716,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2711,11 +2726,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2760,14 +2775,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2777,14 +2792,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2800,7 +2815,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2814,10 +2829,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2843,14 +2858,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2876,14 +2891,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2932,7 +2947,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2942,14 +2957,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2975,14 +2990,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2998,7 +3013,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3031,7 +3046,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3064,7 +3079,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3081,7 +3096,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3097,7 +3112,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3114,7 +3129,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>162</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>165</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3163,21 +3178,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>26</v>
@@ -3189,28 +3204,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -3222,24 +3237,24 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3262,7 +3277,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3279,7 +3294,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3295,7 +3310,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3305,14 +3320,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3321,14 +3336,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3338,11 +3353,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -3354,14 +3369,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3371,11 +3386,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>26</v>
@@ -3387,14 +3402,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3404,14 +3419,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3427,13 +3442,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3444,7 +3459,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3460,13 +3475,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3493,7 +3508,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3503,11 +3518,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3519,24 +3534,24 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3559,24 +3574,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3585,14 +3600,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3602,11 +3617,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3618,14 +3633,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3635,14 +3650,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3658,7 +3673,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3691,7 +3706,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3701,11 +3716,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>26</v>
@@ -3717,14 +3732,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3734,14 +3749,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3750,14 +3765,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3771,10 +3786,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3783,14 +3798,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3807,7 +3822,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3823,7 +3838,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3837,10 +3852,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3849,14 +3864,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3866,14 +3881,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3889,7 +3904,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3903,10 +3918,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3915,14 +3930,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3932,14 +3947,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3969,10 +3984,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3981,7 +3996,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3998,14 +4013,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4021,7 +4036,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4031,14 +4046,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4047,14 +4062,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>55</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4064,11 +4079,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>31</v>
@@ -4080,14 +4095,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4097,14 +4112,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4113,7 +4128,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4130,11 +4145,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>26</v>
@@ -4146,14 +4161,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4163,11 +4178,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>26</v>
@@ -4179,14 +4194,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4196,11 +4211,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>26</v>
@@ -4212,14 +4227,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4229,11 +4244,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>26</v>
@@ -4245,7 +4260,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4262,14 +4277,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4278,14 +4293,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4295,14 +4310,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4318,7 +4333,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4328,14 +4343,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4344,14 +4359,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4361,14 +4376,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4384,7 +4399,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4394,14 +4409,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4410,14 +4425,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4427,14 +4442,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4443,14 +4458,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4460,14 +4475,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4483,7 +4498,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,14 +4508,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4509,14 +4524,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4526,14 +4541,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>263</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4542,14 +4557,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4559,14 +4574,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q96" s="12">
         <v>267</v>
-      </c>
-      <c t="s" r="Q96" s="12">
-        <v>67</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4582,7 +4597,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>47</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4592,14 +4607,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4608,31 +4623,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4641,28 +4656,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>26</v>
@@ -4674,31 +4689,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>275</v>
+        <v>124</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>35</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4707,31 +4722,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4740,28 +4755,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>26</v>
@@ -4773,28 +4788,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>26</v>
@@ -4806,28 +4821,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>26</v>
@@ -4839,31 +4854,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>162</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4872,7 +4887,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4885,18 +4900,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>286</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4905,7 +4920,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4918,18 +4933,18 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4938,31 +4953,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>292</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>26</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4971,28 +4986,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>26</v>
@@ -5004,28 +5019,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>26</v>
@@ -5037,28 +5052,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>26</v>
@@ -5070,28 +5085,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>26</v>
@@ -5103,28 +5118,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>202</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>26</v>
@@ -5136,28 +5151,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>26</v>
@@ -5169,28 +5184,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>26</v>
@@ -5202,28 +5217,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>26</v>
@@ -5235,31 +5250,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>33</v>
+        <v>311</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5268,31 +5283,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5301,31 +5316,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>310</v>
+        <v>51</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5334,31 +5349,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>51</v>
+        <v>315</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>312</v>
+        <v>221</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>313</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5367,28 +5382,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>202</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>26</v>
@@ -5400,28 +5415,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>26</v>
@@ -5433,28 +5448,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>317</v>
+        <v>184</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>26</v>
@@ -5466,31 +5481,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5499,66 +5514,99 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>33</v>
+        <v>315</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>7247.0299999999997</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>320</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>321</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
-        <v>322</v>
-      </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>324</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>33</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>170</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>131</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7279.9099999999999</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>325</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>326</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>327</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6162,10 +6210,15 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -389,6 +389,9 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -410,6 +413,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>FAMOTAK 40MG 20 TABLETS</t>
   </si>
   <si>
@@ -497,6 +509,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -575,6 +596,15 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>LOTERANOL COMP EYE DROP</t>
   </si>
   <si>
@@ -647,9 +677,6 @@
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
     <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -794,6 +821,15 @@
     <t>61.3800</t>
   </si>
   <si>
+    <t>VITAYAMI 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -986,7 +1022,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 9:29 PM</t>
+    <t>Tuesday, 2 September, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2716,7 +2752,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2726,11 +2762,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2742,14 +2778,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2759,11 +2795,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2775,14 +2811,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2792,14 +2828,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2808,14 +2844,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2825,11 +2861,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
@@ -2841,14 +2877,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2858,14 +2894,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2874,14 +2910,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2891,14 +2927,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2928,10 +2964,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2940,14 +2976,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2957,14 +2993,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2973,14 +3009,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2990,14 +3026,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3006,14 +3042,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3023,11 +3059,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -3039,14 +3075,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3056,14 +3092,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3072,14 +3108,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3089,11 +3125,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -3105,14 +3141,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3122,14 +3158,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3138,14 +3174,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3155,14 +3191,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3171,14 +3207,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3188,14 +3224,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3204,28 +3240,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -3237,7 +3273,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3250,18 +3286,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3270,7 +3306,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3287,11 +3323,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>26</v>
@@ -3303,31 +3339,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3336,7 +3372,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3349,15 +3385,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -3376,7 +3412,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3386,11 +3422,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>26</v>
@@ -3402,14 +3438,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3419,14 +3455,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3435,14 +3471,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3452,14 +3488,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3468,28 +3504,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3501,14 +3537,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3518,11 +3554,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3534,14 +3570,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3551,14 +3587,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3567,7 +3603,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3580,15 +3616,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3600,31 +3636,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3654,10 +3690,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3666,14 +3702,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3683,7 +3719,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3706,13 +3742,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3739,7 +3775,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3749,14 +3785,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3786,7 +3822,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3805,7 +3841,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>67</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3815,11 +3851,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3831,14 +3867,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3848,14 +3884,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3864,14 +3900,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3881,14 +3917,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3897,14 +3933,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3914,14 +3950,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3930,14 +3966,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3947,14 +3983,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3963,14 +3999,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3980,14 +4016,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3996,14 +4032,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4013,14 +4049,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4029,14 +4065,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4046,11 +4082,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>26</v>
@@ -4062,14 +4098,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4079,14 +4115,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4095,14 +4131,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4112,14 +4148,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4128,14 +4164,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4145,14 +4181,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4161,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4178,11 +4214,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>26</v>
@@ -4194,14 +4230,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4211,14 +4247,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>94</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4227,14 +4263,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4244,14 +4280,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4260,7 +4296,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4277,11 +4313,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>26</v>
@@ -4293,7 +4329,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4310,14 +4346,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4326,14 +4362,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4343,14 +4379,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4359,7 +4395,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4376,11 +4412,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>26</v>
@@ -4392,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4409,14 +4445,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4442,14 +4478,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4458,14 +4494,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4475,14 +4511,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4491,14 +4527,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4508,14 +4544,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4524,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4541,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4557,14 +4593,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4574,14 +4610,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>267</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4590,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>51</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4607,14 +4643,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>143</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4623,14 +4659,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4640,11 +4676,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4656,31 +4692,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4689,31 +4725,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4722,31 +4758,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>55</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4762,24 +4798,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4788,31 +4824,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4821,28 +4857,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>26</v>
@@ -4854,28 +4890,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>26</v>
@@ -4887,31 +4923,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>165</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4920,31 +4956,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>290</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4953,31 +4989,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>293</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4986,28 +5022,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>112</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>26</v>
@@ -5019,28 +5055,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>26</v>
@@ -5052,31 +5088,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>26</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5085,31 +5121,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>26</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5118,31 +5154,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>26</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5151,28 +5187,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>205</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>26</v>
@@ -5184,28 +5220,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>26</v>
@@ -5217,28 +5253,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>26</v>
@@ -5250,28 +5286,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>311</v>
+        <v>191</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>26</v>
@@ -5283,31 +5319,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5316,28 +5352,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>26</v>
@@ -5349,31 +5385,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>315</v>
+        <v>55</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5382,28 +5418,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>26</v>
@@ -5415,28 +5451,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>184</v>
+        <v>323</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>26</v>
@@ -5448,31 +5484,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5481,28 +5517,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>322</v>
+        <v>51</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>26</v>
@@ -5514,28 +5550,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>67</v>
@@ -5547,66 +5583,231 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>330</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>331</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>191</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>177</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>214</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>332</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>191</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>177</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>44</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>333</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>334</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>177</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>232</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>335</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>327</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>177</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>214</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>336</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>33</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>177</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
         <v>132</v>
       </c>
-      <c t="s" r="Q126" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7279.9099999999999</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>325</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>326</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>327</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>7564.46</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>337</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>338</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>339</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6215,10 +6416,35 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -203,588 +203,594 @@
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>119.5200</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>FAMOTAK 40MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GYNOZOL 200MG 6 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>339.00</t>
+  </si>
+  <si>
+    <t>339.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>402.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>KIDZOS LOTION</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADAME  VAG.DOUSH</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>LOTERANOL COMP EYE DROP</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) 355ML SUSP.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>MENTO DROPS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>NYSTATIN 100 000 I.U./ML 30ML SUSP.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>POLYFRESH ADVANCED EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>-55.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>-37.6000</t>
+  </si>
+  <si>
+    <t>QUADRIDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>TRYPSALIN 20 TABS</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>UNICTAM 1.5 GM I.M/I.V. VIAL</t>
+  </si>
+  <si>
+    <t>672.0000</t>
+  </si>
+  <si>
     <t>12:0</t>
   </si>
   <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>DEXAFLOX EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>107.6400</t>
-  </si>
-  <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>FAMOTAK 40MG 20 TABLETS</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GYNOZOL 200MG 6 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>339.00</t>
-  </si>
-  <si>
-    <t>339.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>402.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>KIDZOS LOTION</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADAME  VAG.DOUSH</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/ML ORAL DROPS 20 ML</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>LIPONA 20MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>LOTERANOL COMP EYE DROP</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>MAALOX PLUS (LEMON FLAVOURED) 355ML SUSP.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MENTO DROPS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>NYSTATIN 100 000 I.U./ML 30ML SUSP.</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>POLYFRESH ADVANCED EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
-  </si>
-  <si>
-    <t>-55.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:16</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>-37.6000</t>
-  </si>
-  <si>
-    <t>QUADRIDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>TRYPSALIN 20 TABS</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>UNICTAM 1.5 GM I.M/I.V. VIAL</t>
-  </si>
-  <si>
-    <t>672.0000</t>
-  </si>
-  <si>
     <t>URGINAFECT 10MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -914,10 +920,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>52:0</t>
+    <t>116.0000</t>
+  </si>
+  <si>
+    <t>58:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -980,9 +986,6 @@
     <t>قطن ازن صغير</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -1022,7 +1025,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 9:36 PM</t>
+    <t>Tuesday, 2 September, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2109,7 +2112,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2118,7 +2121,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2135,11 +2138,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -2151,7 +2154,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2168,11 +2171,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>26</v>
@@ -2184,7 +2187,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2201,11 +2204,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2217,7 +2220,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2234,7 +2237,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2250,7 +2253,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2267,11 +2270,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>26</v>
@@ -2283,7 +2286,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2300,11 +2303,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2316,7 +2319,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2333,11 +2336,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2349,14 +2352,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2366,14 +2369,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>67</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2670,7 +2673,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2679,7 +2682,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2696,11 +2699,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2712,14 +2715,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2733,7 +2736,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2745,7 +2748,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2762,11 +2765,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2778,7 +2781,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2795,11 +2798,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2811,14 +2814,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2964,10 +2967,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2983,7 +2986,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3214,7 +3217,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3709,7 +3712,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3726,7 +3729,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3841,7 +3844,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4039,7 +4042,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4056,7 +4059,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4247,7 +4250,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4369,7 +4372,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4402,7 +4405,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4416,10 +4419,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4428,7 +4431,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4449,7 +4452,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>26</v>
@@ -4461,7 +4464,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4482,10 +4485,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>64</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4494,7 +4497,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4511,11 +4514,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4527,14 +4530,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4560,7 +4563,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4577,11 +4580,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4593,7 +4596,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4626,7 +4629,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4659,7 +4662,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4676,11 +4679,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4692,7 +4695,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4709,11 +4712,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4725,14 +4728,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4746,7 +4749,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4758,14 +4761,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4775,14 +4778,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4791,14 +4794,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4808,14 +4811,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4824,7 +4827,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4841,7 +4844,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4857,7 +4860,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4890,14 +4893,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4907,11 +4910,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>26</v>
@@ -4923,14 +4926,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4956,7 +4959,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4989,7 +4992,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5006,7 +5009,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5022,7 +5025,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5055,7 +5058,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5088,7 +5091,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5105,11 +5108,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>172</v>
@@ -5121,7 +5124,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5138,14 +5141,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5154,7 +5157,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5171,14 +5174,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5187,7 +5190,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5204,11 +5207,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>26</v>
@@ -5220,14 +5223,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5237,11 +5240,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>26</v>
@@ -5253,7 +5256,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5270,11 +5273,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>26</v>
@@ -5286,7 +5289,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5319,7 +5322,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5336,11 +5339,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>26</v>
@@ -5352,7 +5355,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5385,7 +5388,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5402,11 +5405,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>26</v>
@@ -5418,14 +5421,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5435,11 +5438,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>26</v>
@@ -5451,14 +5454,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>323</v>
+        <v>64</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5468,11 +5471,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>26</v>
@@ -5484,7 +5487,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5501,7 +5504,7 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
@@ -5517,7 +5520,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5550,14 +5553,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5574,7 +5577,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5583,7 +5586,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5600,11 +5603,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>26</v>
@@ -5616,7 +5619,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5649,7 +5652,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5682,14 +5685,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5715,14 +5718,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5739,7 +5742,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5748,7 +5751,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5777,13 +5780,13 @@
     </row>
     <row r="132" ht="25.5" customHeight="1">
       <c r="P132" s="13">
-        <v>7564.46</v>
+        <v>7738.3400000000001</v>
       </c>
       <c r="Q132" s="13"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
       <c t="s" r="A133" s="14">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -5791,13 +5794,13 @@
       <c r="E133" s="14"/>
       <c r="F133" s="14"/>
       <c t="s" r="G133" s="15">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
       <c r="J133" s="16"/>
       <c t="s" r="K133" s="17">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L133" s="17"/>
       <c r="M133" s="17"/>

--- a/DaySale_2025-09-02_00-00.xlsx
+++ b/DaySale_2025-09-02_00-00.xlsx
@@ -1025,7 +1025,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 9:44 PM</t>
+    <t>Tuesday, 2 September, 2025 9:4